--- a/umit_files/umit_ist.xlsx
+++ b/umit_files/umit_ist.xlsx
@@ -21,10 +21,12 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,11 +262,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1HMOzyDT0o58KfV2GKraRmSukPRddpIugab0pQri3fm0/edit?usp=sharing"",""УМИТЫ!A:Z"")"),"Древность-Древнерусское государство")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/13TEKQLew6a4snWHLJnY6kEJlLowKLqbaQsWiScwU3v4/edit"",""УМИТЫ!A:Z"")"),"Древность-Древнерусское государство")</f>
         <v>Древность-Древнерусское государство</v>
       </c>
       <c r="B1" s="1"/>

--- a/umit_files/umit_ist.xlsx
+++ b/umit_files/umit_ist.xlsx
@@ -4352,8 +4352,14 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="A48" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Елена Глинская и Боярское правление")</f>
+        <v>Елена Глинская и Боярское правление</v>
+      </c>
+      <c r="B48" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),47.0)</f>
+        <v>47</v>
+      </c>
       <c r="C48" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Автокефалия РПЦ")</f>
         <v>Автокефалия РПЦ</v>
@@ -4422,8 +4428,14 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="A49" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Иван Грозный внутренняя политика 1547-1565 гг.")</f>
+        <v>Иван Грозный внутренняя политика 1547-1565 гг.</v>
+      </c>
+      <c r="B49" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
+      </c>
       <c r="C49" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Поход на Новгород")</f>
         <v>Поход на Новгород</v>
@@ -4492,8 +4504,14 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="A50" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Опричнина и последние годы")</f>
+        <v>Опричнина и последние годы</v>
+      </c>
+      <c r="B50" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
+        <v>49</v>
+      </c>
       <c r="C50" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Распад Золотой Орды")</f>
         <v>Распад Золотой Орды</v>
@@ -4562,8 +4580,14 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+      <c r="A51" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Иван Грозный внешняя политика")</f>
+        <v>Иван Грозный внешняя политика</v>
+      </c>
+      <c r="B51" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
+        <v>50</v>
+      </c>
       <c r="C51" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Присоединение земель к Москве при Иване Третьем")</f>
         <v>Присоединение земель к Москве при Иване Третьем</v>
@@ -4632,8 +4656,14 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="A52" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ливонская война")</f>
+        <v>Ливонская война</v>
+      </c>
+      <c r="B52" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),51.0)</f>
+        <v>51</v>
+      </c>
       <c r="C52" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Стояние на р.Угре")</f>
         <v>Стояние на р.Угре</v>
@@ -4642,8 +4672,16 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),151.0)</f>
         <v>151</v>
       </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="E52" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кинематограф второй половины 20 века - начала 21 века
+")</f>
+        <v>Кинематограф второй половины 20 века - начала 21 века
+</v>
+      </c>
+      <c r="F52" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),251.0)</f>
+        <v>251</v>
+      </c>
       <c r="G52" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Экономическая политика Елизаветы")</f>
         <v>Экономическая политика Елизаветы</v>
@@ -4696,8 +4734,16 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="A53" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Федор Иоаннович
+")</f>
+        <v>Федор Иоаннович
+</v>
+      </c>
+      <c r="B53" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),52.0)</f>
+        <v>52</v>
+      </c>
       <c r="C53" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Судебник Ивана 3")</f>
         <v>Судебник Ивана 3</v>
@@ -4706,8 +4752,16 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),152.0)</f>
         <v>152</v>
       </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="E53" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Всемирная История до Рюрика
+")</f>
+        <v>Всемирная История до Рюрика
+</v>
+      </c>
+      <c r="F53" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),252.0)</f>
+        <v>252</v>
+      </c>
       <c r="G53" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дарование льгот дворянству")</f>
         <v>Дарование льгот дворянству</v>
@@ -4760,8 +4814,14 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="A54" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Смута 1598-1613 гг. (причины/последствия/основные черты)")</f>
+        <v>Смута 1598-1613 гг. (причины/последствия/основные черты)</v>
+      </c>
+      <c r="B54" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),53.0)</f>
+        <v>53</v>
+      </c>
       <c r="C54" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Борьба Иосифлян и Нестяжателей")</f>
         <v>Борьба Иосифлян и Нестяжателей</v>
@@ -4770,8 +4830,16 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),153.0)</f>
         <v>153</v>
       </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="E54" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Всемирная история Средних веков
+")</f>
+        <v>Всемирная история Средних веков
+</v>
+      </c>
+      <c r="F54" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),253.0)</f>
+        <v>253</v>
+      </c>
       <c r="G54" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Русско-Шведская война 1741-1743")</f>
         <v>Русско-Шведская война 1741-1743</v>
@@ -4824,8 +4892,16 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+      <c r="A55" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Борис Годунов (1598-1605 гг.) и Федор Годунов
+")</f>
+        <v>Борис Годунов (1598-1605 гг.) и Федор Годунов
+</v>
+      </c>
+      <c r="B55" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),54.0)</f>
+        <v>54</v>
+      </c>
       <c r="C55" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Борьба с Литвой Ивана 3")</f>
         <v>Борьба с Литвой Ивана 3</v>
@@ -4834,8 +4910,16 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),154.0)</f>
         <v>154</v>
       </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="E55" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Всемирная история XVI-XVII веков
+")</f>
+        <v>Всемирная история XVI-XVII веков
+</v>
+      </c>
+      <c r="F55" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),254.0)</f>
+        <v>254</v>
+      </c>
       <c r="G55" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Семилетняя война")</f>
         <v>Семилетняя война</v>
@@ -4888,8 +4972,14 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="A56" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лжедмитрий I")</f>
+        <v>Лжедмитрий I</v>
+      </c>
+      <c r="B56" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),55.0)</f>
+        <v>55</v>
+      </c>
       <c r="C56" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Государственная система при Иване III")</f>
         <v>Государственная система при Иване III</v>
@@ -4898,8 +4988,16 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),155.0)</f>
         <v>155</v>
       </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="E56" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Всемирная история XVIII века
+")</f>
+        <v>Всемирная история XVIII века
+</v>
+      </c>
+      <c r="F56" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),255.0)</f>
+        <v>255</v>
+      </c>
       <c r="G56" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Личность Петра III")</f>
         <v>Личность Петра III</v>
@@ -4952,8 +5050,16 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="A57" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Василий Шуйский
+")</f>
+        <v>Василий Шуйский
+</v>
+      </c>
+      <c r="B57" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),56.0)</f>
+        <v>56</v>
+      </c>
       <c r="C57" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Присоединение Пскова, Смоленска, Рязани, Новгород-Северского")</f>
         <v>Присоединение Пскова, Смоленска, Рязани, Новгород-Северского</v>
@@ -4962,8 +5068,16 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),156.0)</f>
         <v>156</v>
       </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="E57" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Французская революция
+")</f>
+        <v>Французская революция
+</v>
+      </c>
+      <c r="F57" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),256.0)</f>
+        <v>256</v>
+      </c>
       <c r="G57" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Петербургский мир")</f>
         <v>Петербургский мир</v>
@@ -5016,8 +5130,16 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="A58" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лжедмитрий II
+")</f>
+        <v>Лжедмитрий II
+</v>
+      </c>
+      <c r="B58" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),57.0)</f>
+        <v>57</v>
+      </c>
       <c r="C58" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Борьба с Литвой Василия 3")</f>
         <v>Борьба с Литвой Василия 3</v>
@@ -5026,8 +5148,16 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),157.0)</f>
         <v>157</v>
       </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="E58" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Европейские страны в XIX – начале XX в.
+")</f>
+        <v>Европейские страны в XIX – начале XX в.
+</v>
+      </c>
+      <c r="F58" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),257.0)</f>
+        <v>257</v>
+      </c>
       <c r="G58" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Начало секуляризации церковных имуществ")</f>
         <v>Начало секуляризации церковных имуществ</v>
@@ -5036,8 +5166,16 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),357.0)</f>
         <v>357</v>
       </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="I58" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Живопись второй половины 19 века – начала 20 века
+")</f>
+        <v>Живопись второй половины 19 века – начала 20 века
+</v>
+      </c>
+      <c r="J58" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),457.0)</f>
+        <v>457</v>
+      </c>
       <c r="K58" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Особенности культуры 19- начала 20 века ")</f>
         <v>Особенности культуры 19- начала 20 века </v>
@@ -5074,8 +5212,16 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="A59" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Семибоярщина
+")</f>
+        <v>Семибоярщина
+</v>
+      </c>
+      <c r="B59" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
+        <v>58</v>
+      </c>
       <c r="C59" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теория «Москва Третий Рим»")</f>
         <v>Теория «Москва Третий Рим»</v>
@@ -5084,8 +5230,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),158.0)</f>
         <v>158</v>
       </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="E59" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"США в XIX – начале XX в.")</f>
+        <v>США в XIX – начале XX в.</v>
+      </c>
+      <c r="F59" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
+        <v>258</v>
+      </c>
       <c r="G59" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Манифест о вольности дворянству")</f>
         <v>Манифест о вольности дворянству</v>
@@ -5094,8 +5246,16 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),358.0)</f>
         <v>358</v>
       </c>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="I59" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образование и наука второй половины 19 века – начала 20 века
+")</f>
+        <v>Образование и наука второй половины 19 века – начала 20 века
+</v>
+      </c>
+      <c r="J59" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),458.0)</f>
+        <v>458</v>
+      </c>
       <c r="K59" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература 19- начала 20 века ")</f>
         <v>Литература 19- начала 20 века </v>
@@ -5132,8 +5292,16 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="A60" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Народные ополчения и интервенции + земский собор 1613 г.
+")</f>
+        <v>Народные ополчения и интервенции + земский собор 1613 г.
+</v>
+      </c>
+      <c r="B60" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),59.0)</f>
+        <v>59</v>
+      </c>
       <c r="C60" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Присоединение Земель в XIV–XV веке")</f>
         <v>Присоединение Земель в XIV–XV веке</v>
@@ -5142,8 +5310,16 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),159.0)</f>
         <v>159</v>
       </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="E60" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Первая мировая война
+")</f>
+        <v>Первая мировая война
+</v>
+      </c>
+      <c r="F60" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
+        <v>259</v>
+      </c>
       <c r="G60" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Причины недовольства Петром 3. Дворцовый переворот 1762")</f>
         <v>Причины недовольства Петром 3. Дворцовый переворот 1762</v>
@@ -5152,8 +5328,16 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),359.0)</f>
         <v>359</v>
       </c>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="I60" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Февральская революция
+")</f>
+        <v>Февральская революция
+</v>
+      </c>
+      <c r="J60" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),459.0)</f>
+        <v>459</v>
+      </c>
       <c r="K60" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура 19- начала 20 века ")</f>
         <v>Архитектура 19- начала 20 века </v>
@@ -5190,8 +5374,16 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="A61" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература 16 в.
+")</f>
+        <v>Литература 16 в.
+</v>
+      </c>
+      <c r="B61" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),60.0)</f>
+        <v>60</v>
+      </c>
       <c r="C61" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Монголы (Темучин-Ахмат)")</f>
         <v>Монголы (Темучин-Ахмат)</v>
@@ -5200,12 +5392,36 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),160.0)</f>
         <v>160</v>
       </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="E61" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Латинская Америка и Восток в XIX – начале XX в.
+")</f>
+        <v>Латинская Америка и Восток в XIX – начале XX в.
+</v>
+      </c>
+      <c r="F61" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.0)</f>
+        <v>260</v>
+      </c>
+      <c r="G61" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура первой половины 18 века
+")</f>
+        <v>Архитектура первой половины 18 века
+</v>
+      </c>
+      <c r="H61" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),360.0)</f>
+        <v>360</v>
+      </c>
+      <c r="I61" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Временное правительство
+")</f>
+        <v>Временное правительство
+</v>
+      </c>
+      <c r="J61" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),460.0)</f>
+        <v>460</v>
+      </c>
       <c r="K61" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Наука 19- начала 20 века ")</f>
         <v>Наука 19- начала 20 века </v>
@@ -5242,8 +5458,16 @@
       <c r="Z61" s="1"/>
     </row>
     <row r="62">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="A62" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура 16 в.
+")</f>
+        <v>Архитектура 16 в.
+</v>
+      </c>
+      <c r="B62" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),61.0)</f>
+        <v>61</v>
+      </c>
       <c r="C62" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Даниил Галицкий")</f>
         <v>Даниил Галицкий</v>
@@ -5252,12 +5476,36 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),161.0)</f>
         <v>161</v>
       </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="E62" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Европейские страны в 20-30-е годы XX в.
+")</f>
+        <v>Европейские страны в 20-30-е годы XX в.
+</v>
+      </c>
+      <c r="F62" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),261.0)</f>
+        <v>261</v>
+      </c>
+      <c r="G62" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Живопись первой половины 18 века
+")</f>
+        <v>Живопись первой половины 18 века
+</v>
+      </c>
+      <c r="H62" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361.0)</f>
+        <v>361</v>
+      </c>
+      <c r="I62" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Октябрьская революция
+")</f>
+        <v>Октябрьская революция
+</v>
+      </c>
+      <c r="J62" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),461.0)</f>
+        <v>461</v>
+      </c>
       <c r="K62" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Живопись 19- начала 20 века ")</f>
         <v>Живопись 19- начала 20 века </v>
@@ -5294,8 +5542,16 @@
       <c r="Z62" s="1"/>
     </row>
     <row r="63">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="A63" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Живопись 16 в.
+")</f>
+        <v>Живопись 16 в.
+</v>
+      </c>
+      <c r="B63" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),62.0)</f>
+        <v>62</v>
+      </c>
       <c r="C63" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формы зависимости от Золотой орды. Ярлык")</f>
         <v>Формы зависимости от Золотой орды. Ярлык</v>
@@ -5304,12 +5560,34 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),162.0)</f>
         <v>162</v>
       </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="E63" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"США в 20-30-е годы XX в.
+")</f>
+        <v>США в 20-30-е годы XX в.
+</v>
+      </c>
+      <c r="F63" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
+        <v>262</v>
+      </c>
+      <c r="G63" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образование и наука первой половины 18 века
+")</f>
+        <v>Образование и наука первой половины 18 века
+</v>
+      </c>
+      <c r="H63" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),362.0)</f>
+        <v>362</v>
+      </c>
+      <c r="I63" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Присоединение земель Дмитрием Донским")</f>
+        <v>Присоединение земель Дмитрием Донским</v>
+      </c>
+      <c r="J63" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),462.0)</f>
+        <v>462</v>
+      </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1" t="str">
@@ -5340,16 +5618,54 @@
       <c r="Z63" s="1"/>
     </row>
     <row r="64">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="A64" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образование и наука 16 в.
+")</f>
+        <v>Образование и наука 16 в.
+</v>
+      </c>
+      <c r="B64" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),63.0)</f>
+        <v>63</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература Возвышения Москвы 1263-1533 гг.
+")</f>
+        <v>Литература Возвышения Москвы 1263-1533 гг.
+</v>
+      </c>
+      <c r="D64" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
+        <v>163</v>
+      </c>
+      <c r="E64" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Латинская Америка и Восток в XX в.
+")</f>
+        <v>Латинская Америка и Восток в XX в.
+</v>
+      </c>
+      <c r="F64" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),263.0)</f>
+        <v>263</v>
+      </c>
+      <c r="G64" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература второй половины 18 века
+")</f>
+        <v>Литература второй половины 18 века
+</v>
+      </c>
+      <c r="H64" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),363.0)</f>
+        <v>363</v>
+      </c>
+      <c r="I64" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Непременный совет")</f>
+        <v>Непременный совет</v>
+      </c>
+      <c r="J64" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),463.0)</f>
+        <v>463</v>
+      </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1" t="str">
@@ -5380,14 +5696,46 @@
       <c r="Z64" s="1"/>
     </row>
     <row r="65">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
+      <c r="A65" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хрущев внутренняя политика
+")</f>
+        <v>Хрущев внутренняя политика
+</v>
+      </c>
+      <c r="B65" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),64.0)</f>
+        <v>64</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура раздробленности 1132-1263 гг.
+")</f>
+        <v>Архитектура раздробленности 1132-1263 гг.
+</v>
+      </c>
+      <c r="D65" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),164.0)</f>
+        <v>164</v>
+      </c>
+      <c r="E65" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вторая мировая война
+")</f>
+        <v>Вторая мировая война
+</v>
+      </c>
+      <c r="F65" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),264.0)</f>
+        <v>264</v>
+      </c>
+      <c r="G65" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура второй половины 18 века
+")</f>
+        <v>Архитектура второй половины 18 века
+</v>
+      </c>
+      <c r="H65" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),364.0)</f>
+        <v>364</v>
+      </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -5422,14 +5770,46 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
+      <c r="A66" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Экономика при Хрущеве
+")</f>
+        <v>Экономика при Хрущеве
+</v>
+      </c>
+      <c r="B66" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),65.0)</f>
+        <v>65</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура Возвышения Москвы 1263-1533 гг.
+")</f>
+        <v>Архитектура Возвышения Москвы 1263-1533 гг.
+</v>
+      </c>
+      <c r="D66" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),165.0)</f>
+        <v>165</v>
+      </c>
+      <c r="E66" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"США в второй половине XX в. Холодная война
+")</f>
+        <v>США в второй половине XX в. Холодная война
+</v>
+      </c>
+      <c r="F66" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),265.0)</f>
+        <v>265</v>
+      </c>
+      <c r="G66" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Живопись второй половины 18 века
+")</f>
+        <v>Живопись второй половины 18 века
+</v>
+      </c>
+      <c r="H66" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),365.0)</f>
+        <v>365</v>
+      </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -5462,14 +5842,44 @@
       <c r="Z66" s="1"/>
     </row>
     <row r="67">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
+      <c r="A67" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хрущев внешняя политика
+")</f>
+        <v>Хрущев внешняя политика
+</v>
+      </c>
+      <c r="B67" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),66.0)</f>
+        <v>66</v>
+      </c>
+      <c r="C67" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Живопись раздробленности 1132-1263 гг.
+")</f>
+        <v>Живопись раздробленности 1132-1263 гг.
+</v>
+      </c>
+      <c r="D67" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),166.0)</f>
+        <v>166</v>
+      </c>
+      <c r="E67" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Европейские страны в второй половине XX в.")</f>
+        <v>Европейские страны в второй половине XX в.</v>
+      </c>
+      <c r="F67" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.0)</f>
+        <v>266</v>
+      </c>
+      <c r="G67" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образование и наука второй половины 18 века
+")</f>
+        <v>Образование и наука второй половины 18 века
+</v>
+      </c>
+      <c r="H67" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),366.0)</f>
+        <v>366</v>
+      </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -5496,14 +5906,44 @@
       <c r="Z67" s="1"/>
     </row>
     <row r="68">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
+      <c r="A68" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брежнев внутренняя политика
+")</f>
+        <v>Брежнев внутренняя политика
+</v>
+      </c>
+      <c r="B68" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),67.0)</f>
+        <v>67</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Живопись Возвышения Москвы 1263-1533 гг.
+")</f>
+        <v>Живопись Возвышения Москвы 1263-1533 гг.
+</v>
+      </c>
+      <c r="D68" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),167.0)</f>
+        <v>167</v>
+      </c>
+      <c r="E68" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Соседи славян")</f>
+        <v>Соседи славян</v>
+      </c>
+      <c r="F68" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),267.0)</f>
+        <v>267</v>
+      </c>
+      <c r="G68" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Александр I (либеральный) внутренняя политика
+")</f>
+        <v>Александр I (либеральный) внутренняя политика
+</v>
+      </c>
+      <c r="H68" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),367.0)</f>
+        <v>367</v>
+      </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -5530,14 +5970,44 @@
       <c r="Z68" s="1"/>
     </row>
     <row r="69">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
+      <c r="A69" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Экономика при Брежневе
+")</f>
+        <v>Экономика при Брежневе
+</v>
+      </c>
+      <c r="B69" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),68.0)</f>
+        <v>68</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Михаил Федорович внутренняя политика
+")</f>
+        <v>Михаил Федорович внутренняя политика
+</v>
+      </c>
+      <c r="D69" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),168.0)</f>
+        <v>168</v>
+      </c>
+      <c r="E69" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Экономика до появления государства")</f>
+        <v>Экономика до появления государства</v>
+      </c>
+      <c r="F69" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.0)</f>
+        <v>268</v>
+      </c>
+      <c r="G69" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Александр I (либеральный) внешняя политика
+")</f>
+        <v>Александр I (либеральный) внешняя политика
+</v>
+      </c>
+      <c r="H69" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),368.0)</f>
+        <v>368</v>
+      </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -5564,14 +6034,44 @@
       <c r="Z69" s="1"/>
     </row>
     <row r="70">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
+      <c r="A70" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брежнев внешняя политика
+")</f>
+        <v>Брежнев внешняя политика
+</v>
+      </c>
+      <c r="B70" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),69.0)</f>
+        <v>69</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Михаил Федорович внешняя политика
+")</f>
+        <v>Михаил Федорович внешняя политика
+</v>
+      </c>
+      <c r="D70" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),169.0)</f>
+        <v>169</v>
+      </c>
+      <c r="E70" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Торговые пути")</f>
+        <v>Торговые пути</v>
+      </c>
+      <c r="F70" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
+        <v>269</v>
+      </c>
+      <c r="G70" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отечественная война. Освободительный поход. Венский конгресс
+")</f>
+        <v>Отечественная война. Освободительный поход. Венский конгресс
+</v>
+      </c>
+      <c r="H70" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
+        <v>369</v>
+      </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -5598,14 +6098,46 @@
       <c r="Z70" s="1"/>
     </row>
     <row r="71">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
+      <c r="A71" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Андропов. Черненко
+")</f>
+        <v>Андропов. Черненко
+</v>
+      </c>
+      <c r="B71" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),70.0)</f>
+        <v>70</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Алексей Михайлович внутренняя политика
+")</f>
+        <v>Алексей Михайлович внутренняя политика
+</v>
+      </c>
+      <c r="D71" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),170.0)</f>
+        <v>170</v>
+      </c>
+      <c r="E71" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Рюрик. Норманнская, антинорманнская теория
+")</f>
+        <v>Рюрик. Норманнская, антинорманнская теория
+</v>
+      </c>
+      <c r="F71" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),270.0)</f>
+        <v>270</v>
+      </c>
+      <c r="G71" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Александр I (консервативный) внутренняя политика
+")</f>
+        <v>Александр I (консервативный) внутренняя политика
+</v>
+      </c>
+      <c r="H71" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),370.0)</f>
+        <v>370</v>
+      </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -5632,14 +6164,46 @@
       <c r="Z71" s="1"/>
     </row>
     <row r="72">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
+      <c r="A72" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Горбачев внутренняя политика. Экономика
+")</f>
+        <v>Горбачев внутренняя политика. Экономика
+</v>
+      </c>
+      <c r="B72" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),71.0)</f>
+        <v>71</v>
+      </c>
+      <c r="C72" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Алексей Михайлович внешняя политика
+")</f>
+        <v>Алексей Михайлович внешняя политика
+</v>
+      </c>
+      <c r="D72" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),171.0)</f>
+        <v>171</v>
+      </c>
+      <c r="E72" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Олег Вещий — Игорь Рюрикович
+")</f>
+        <v>Олег Вещий — Игорь Рюрикович
+</v>
+      </c>
+      <c r="F72" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),271.0)</f>
+        <v>271</v>
+      </c>
+      <c r="G72" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Александр I (консервативный) внешняя политика
+")</f>
+        <v>Александр I (консервативный) внешняя политика
+</v>
+      </c>
+      <c r="H72" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),371.0)</f>
+        <v>371</v>
+      </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -5666,14 +6230,46 @@
       <c r="Z72" s="1"/>
     </row>
     <row r="73">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
+      <c r="A73" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Горбачев внутренняя политика. Политика
+")</f>
+        <v>Горбачев внутренняя политика. Политика
+</v>
+      </c>
+      <c r="B73" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),72.0)</f>
+        <v>72</v>
+      </c>
+      <c r="C73" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Русско-польская война 1654-1667 гг.
+")</f>
+        <v>Русско-польская война 1654-1667 гг.
+</v>
+      </c>
+      <c r="D73" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
+        <v>172</v>
+      </c>
+      <c r="E73" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ольга — Святослав
+")</f>
+        <v>Ольга — Святослав
+</v>
+      </c>
+      <c r="F73" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),272.0)</f>
+        <v>272</v>
+      </c>
+      <c r="G73" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Николай I внутренняя политика
+")</f>
+        <v>Николай I внутренняя политика
+</v>
+      </c>
+      <c r="H73" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),372.0)</f>
+        <v>372</v>
+      </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -5700,14 +6296,46 @@
       <c r="Z73" s="1"/>
     </row>
     <row r="74">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
+      <c r="A74" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Горбачев внешняя политика
+")</f>
+        <v>Горбачев внешняя политика
+</v>
+      </c>
+      <c r="B74" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
+        <v>73</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Федор Алексеевич
+")</f>
+        <v>Федор Алексеевич
+</v>
+      </c>
+      <c r="D74" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),173.0)</f>
+        <v>173</v>
+      </c>
+      <c r="E74" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Владимир Святой
+")</f>
+        <v>Владимир Святой
+</v>
+      </c>
+      <c r="F74" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.0)</f>
+        <v>273</v>
+      </c>
+      <c r="G74" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Декабристы
+")</f>
+        <v>Декабристы
+</v>
+      </c>
+      <c r="H74" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),373.0)</f>
+        <v>373</v>
+      </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -5734,14 +6362,46 @@
       <c r="Z74" s="1"/>
     </row>
     <row r="75">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
+      <c r="A75" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1991 год: ГКЧП, Распад СССР, национальные процессы
+")</f>
+        <v>1991 год: ГКЧП, Распад СССР, национальные процессы
+</v>
+      </c>
+      <c r="B75" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
+        <v>74</v>
+      </c>
+      <c r="C75" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Экономика 17 века, первопроходцы, торговля
+")</f>
+        <v>Экономика 17 века, первопроходцы, торговля
+</v>
+      </c>
+      <c r="D75" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),174.0)</f>
+        <v>174</v>
+      </c>
+      <c r="E75" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ярослав Мудрый
+")</f>
+        <v>Ярослав Мудрый
+</v>
+      </c>
+      <c r="F75" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),274.0)</f>
+        <v>274</v>
+      </c>
+      <c r="G75" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Общественное мысль при Николае I
+")</f>
+        <v>Общественное мысль при Николае I
+</v>
+      </c>
+      <c r="H75" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),374.0)</f>
+        <v>374</v>
+      </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -5768,14 +6428,46 @@
       <c r="Z75" s="1"/>
     </row>
     <row r="76">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
+      <c r="A76" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Становление советской власти (первые декреты, учредительное собрание)
+")</f>
+        <v>Становление советской власти (первые декреты, учредительное собрание)
+</v>
+      </c>
+      <c r="B76" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),75.0)</f>
+        <v>75</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Этапы закрепощения, виды крестьян
+")</f>
+        <v>Этапы закрепощения, виды крестьян
+</v>
+      </c>
+      <c r="D76" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),175.0)</f>
+        <v>175</v>
+      </c>
+      <c r="E76" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Триумвират Ярославичей. Святополк Изяславич
+")</f>
+        <v>Триумвират Ярославичей. Святополк Изяславич
+</v>
+      </c>
+      <c r="F76" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),275.0)</f>
+        <v>275</v>
+      </c>
+      <c r="G76" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Николай I внешняя политика
+")</f>
+        <v>Николай I внешняя политика
+</v>
+      </c>
+      <c r="H76" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),375.0)</f>
+        <v>375</v>
+      </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -5802,14 +6494,44 @@
       <c r="Z76" s="1"/>
     </row>
     <row r="77">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
+      <c r="A77" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гражданская война. Советско-польская война")</f>
+        <v>Гражданская война. Советско-польская война</v>
+      </c>
+      <c r="B77" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),76.0)</f>
+        <v>76</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература 17 в.
+")</f>
+        <v>Литература 17 в.
+</v>
+      </c>
+      <c r="D77" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),176.0)</f>
+        <v>176</v>
+      </c>
+      <c r="E77" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Владимир Мономах — Мстислав Великий
+")</f>
+        <v>Владимир Мономах — Мстислав Великий
+</v>
+      </c>
+      <c r="F77" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),276.0)</f>
+        <v>276</v>
+      </c>
+      <c r="G77" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Крымская война
+")</f>
+        <v>Крымская война
+</v>
+      </c>
+      <c r="H77" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),376.0)</f>
+        <v>376</v>
+      </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -5836,14 +6558,46 @@
       <c r="Z77" s="1"/>
     </row>
     <row r="78">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
+      <c r="A78" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1920-е гг. внутренняя политика
+")</f>
+        <v>1920-е гг. внутренняя политика
+</v>
+      </c>
+      <c r="B78" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),77.0)</f>
+        <v>77</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура 17 в.
+")</f>
+        <v>Архитектура 17 в.
+</v>
+      </c>
+      <c r="D78" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),177.0)</f>
+        <v>177</v>
+      </c>
+      <c r="E78" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Экономика Древнерусского государства
+")</f>
+        <v>Экономика Древнерусского государства
+</v>
+      </c>
+      <c r="F78" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.0)</f>
+        <v>277</v>
+      </c>
+      <c r="G78" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кавказская война
+")</f>
+        <v>Кавказская война
+</v>
+      </c>
+      <c r="H78" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),377.0)</f>
+        <v>377</v>
+      </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -5870,14 +6624,46 @@
       <c r="Z78" s="1"/>
     </row>
     <row r="79">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
+      <c r="A79" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1920-е гг. внешняя политика
+")</f>
+        <v>1920-е гг. внешняя политика
+</v>
+      </c>
+      <c r="B79" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),78.0)</f>
+        <v>78</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Живопись 17 в.
+")</f>
+        <v>Живопись 17 в.
+</v>
+      </c>
+      <c r="D79" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),178.0)</f>
+        <v>178</v>
+      </c>
+      <c r="E79" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Русская правда
+")</f>
+        <v>Русская правда
+</v>
+      </c>
+      <c r="F79" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
+        <v>278</v>
+      </c>
+      <c r="G79" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература первой половины 19 века
+")</f>
+        <v>Литература первой половины 19 века
+</v>
+      </c>
+      <c r="H79" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),378.0)</f>
+        <v>378</v>
+      </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -5904,14 +6690,44 @@
       <c r="Z79" s="1"/>
     </row>
     <row r="80">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="A80" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1930-е гг. внутренняя политика
+")</f>
+        <v>1930-е гг. внутренняя политика
+</v>
+      </c>
+      <c r="B80" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),79.0)</f>
+        <v>79</v>
+      </c>
+      <c r="C80" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образование и наука 17 в.
+")</f>
+        <v>Образование и наука 17 в.
+</v>
+      </c>
+      <c r="D80" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),179.0)</f>
+        <v>179</v>
+      </c>
+      <c r="E80" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Печенеги и половцы")</f>
+        <v>Печенеги и половцы</v>
+      </c>
+      <c r="F80" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),279.0)</f>
+        <v>279</v>
+      </c>
+      <c r="G80" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура первой половины 19 века
+")</f>
+        <v>Архитектура первой половины 19 века
+</v>
+      </c>
+      <c r="H80" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),379.0)</f>
+        <v>379</v>
+      </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -5938,14 +6754,44 @@
       <c r="Z80" s="1"/>
     </row>
     <row r="81">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
+      <c r="A81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1930-е гг. внешняя политика
+")</f>
+        <v>1930-е гг. внешняя политика
+</v>
+      </c>
+      <c r="B81" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),80.0)</f>
+        <v>80</v>
+      </c>
+      <c r="C81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Софья Алексеевна
+")</f>
+        <v>Софья Алексеевна
+</v>
+      </c>
+      <c r="D81" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),180.0)</f>
+        <v>180</v>
+      </c>
+      <c r="E81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература Древнерусского государства")</f>
+        <v>Литература Древнерусского государства</v>
+      </c>
+      <c r="F81" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),280.0)</f>
+        <v>280</v>
+      </c>
+      <c r="G81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Живопись первой половины 19 века
+")</f>
+        <v>Живопись первой половины 19 века
+</v>
+      </c>
+      <c r="H81" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),380.0)</f>
+        <v>380</v>
+      </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -5972,14 +6818,44 @@
       <c r="Z81" s="1"/>
     </row>
     <row r="82">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
+      <c r="A82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Великая Отечественная война 1941-1943 гг")</f>
+        <v>Великая Отечественная война 1941-1943 гг</v>
+      </c>
+      <c r="B82" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
+        <v>81</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Петр Первый внутренняя политика
+")</f>
+        <v>Петр Первый внутренняя политика
+</v>
+      </c>
+      <c r="D82" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),181.0)</f>
+        <v>181</v>
+      </c>
+      <c r="E82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура Древнерусского государства
+")</f>
+        <v>Архитектура Древнерусского государства
+</v>
+      </c>
+      <c r="F82" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),281.0)</f>
+        <v>281</v>
+      </c>
+      <c r="G82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образование и наука первой половины 19 века
+")</f>
+        <v>Образование и наука первой половины 19 века
+</v>
+      </c>
+      <c r="H82" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),381.0)</f>
+        <v>381</v>
+      </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -6006,14 +6882,44 @@
       <c r="Z82" s="1"/>
     </row>
     <row r="83">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
+      <c r="A83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Великая Отечественная война 1943-1945 гг")</f>
+        <v>Великая Отечественная война 1943-1945 гг</v>
+      </c>
+      <c r="B83" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),82.0)</f>
+        <v>82</v>
+      </c>
+      <c r="C83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Петр Первый внешняя политика
+")</f>
+        <v>Петр Первый внешняя политика
+</v>
+      </c>
+      <c r="D83" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),182.0)</f>
+        <v>182</v>
+      </c>
+      <c r="E83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Раздробленность 1132-1263 гг. (причины/последствия, плюсы и минусы, характерные черты)
+")</f>
+        <v>Раздробленность 1132-1263 гг. (причины/последствия, плюсы и минусы, характерные черты)
+</v>
+      </c>
+      <c r="F83" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),282.0)</f>
+        <v>282</v>
+      </c>
+      <c r="G83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отмена крепостного права
+")</f>
+        <v>Отмена крепостного права
+</v>
+      </c>
+      <c r="H83" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),382.0)</f>
+        <v>382</v>
+      </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -6040,14 +6946,42 @@
       <c r="Z83" s="1"/>
     </row>
     <row r="84">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
+      <c r="A84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Герои ВОВ")</f>
+        <v>Герои ВОВ</v>
+      </c>
+      <c r="B84" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),83.0)</f>
+        <v>83</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эпоха дворцовых переворотов
+")</f>
+        <v>Эпоха дворцовых переворотов
+</v>
+      </c>
+      <c r="D84" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),183.0)</f>
+        <v>183</v>
+      </c>
+      <c r="E84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Князья Владимиро-Суздальского княжества
+")</f>
+        <v>Князья Владимиро-Суздальского княжества
+</v>
+      </c>
+      <c r="F84" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.0)</f>
+        <v>283</v>
+      </c>
+      <c r="G84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Великие реформы Александра II (кроме отмены КП)")</f>
+        <v>Великие реформы Александра II (кроме отмены КП)</v>
+      </c>
+      <c r="H84" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),383.0)</f>
+        <v>383</v>
+      </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -6074,14 +7008,46 @@
       <c r="Z84" s="1"/>
     </row>
     <row r="85">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
+      <c r="A85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Послевоенный период: внутренняя политика
+")</f>
+        <v>Послевоенный период: внутренняя политика
+</v>
+      </c>
+      <c r="B85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
+        <v>84</v>
+      </c>
+      <c r="C85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Екатерина I. Петр II
+")</f>
+        <v>Екатерина I. Петр II
+</v>
+      </c>
+      <c r="D85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),184.0)</f>
+        <v>184</v>
+      </c>
+      <c r="E85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Новгородское княжество и Псков
+")</f>
+        <v>Новгородское княжество и Псков
+</v>
+      </c>
+      <c r="F85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),284.0)</f>
+        <v>284</v>
+      </c>
+      <c r="G85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Александр II внутренняя политика в последние годы
+")</f>
+        <v>Александр II внутренняя политика в последние годы
+</v>
+      </c>
+      <c r="H85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),384.0)</f>
+        <v>384</v>
+      </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -6102,14 +7068,46 @@
       <c r="Z85" s="1"/>
     </row>
     <row r="86">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
+      <c r="A86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Послевоенный период: внешняя политика
+")</f>
+        <v>Послевоенный период: внешняя политика
+</v>
+      </c>
+      <c r="B86" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),85.0)</f>
+        <v>85</v>
+      </c>
+      <c r="C86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Анна Иоанновна внутренняя политика
+")</f>
+        <v>Анна Иоанновна внутренняя политика
+</v>
+      </c>
+      <c r="D86" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),185.0)</f>
+        <v>185</v>
+      </c>
+      <c r="E86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Киевское княжество
+")</f>
+        <v>Киевское княжество
+</v>
+      </c>
+      <c r="F86" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),285.0)</f>
+        <v>285</v>
+      </c>
+      <c r="G86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Общественное мысль при Александре II
+")</f>
+        <v>Общественное мысль при Александре II
+</v>
+      </c>
+      <c r="H86" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),385.0)</f>
+        <v>385</v>
+      </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -6130,14 +7128,46 @@
       <c r="Z86" s="1"/>
     </row>
     <row r="87">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
+      <c r="A87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература первой половины 20 века
+")</f>
+        <v>Литература первой половины 20 века
+</v>
+      </c>
+      <c r="B87" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),86.0)</f>
+        <v>86</v>
+      </c>
+      <c r="C87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Анна Иоанновна внешняя политика
+")</f>
+        <v>Анна Иоанновна внешняя политика
+</v>
+      </c>
+      <c r="D87" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),186.0)</f>
+        <v>186</v>
+      </c>
+      <c r="E87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Галицко-Волынское княжество
+")</f>
+        <v>Галицко-Волынское княжество
+</v>
+      </c>
+      <c r="F87" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.0)</f>
+        <v>286</v>
+      </c>
+      <c r="G87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Александр II внешняя политика
+")</f>
+        <v>Александр II внешняя политика
+</v>
+      </c>
+      <c r="H87" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),386.0)</f>
+        <v>386</v>
+      </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -6158,14 +7188,46 @@
       <c r="Z87" s="1"/>
     </row>
     <row r="88">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
+      <c r="A88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура первой половины 20 века
+")</f>
+        <v>Архитектура первой половины 20 века
+</v>
+      </c>
+      <c r="B88" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),87.0)</f>
+        <v>87</v>
+      </c>
+      <c r="C88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Иван Антонович
+")</f>
+        <v>Иван Антонович
+</v>
+      </c>
+      <c r="D88" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),187.0)</f>
+        <v>187</v>
+      </c>
+      <c r="E88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Монголы (древность – 1237 гг.)
+")</f>
+        <v>Монголы (древность – 1237 гг.)
+</v>
+      </c>
+      <c r="F88" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),287.0)</f>
+        <v>287</v>
+      </c>
+      <c r="G88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Александр III внутренняя политика
+")</f>
+        <v>Александр III внутренняя политика
+</v>
+      </c>
+      <c r="H88" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387.0)</f>
+        <v>387</v>
+      </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -6186,14 +7248,46 @@
       <c r="Z88" s="1"/>
     </row>
     <row r="89">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
+      <c r="A89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Живопись первой половины 20 века
+")</f>
+        <v>Живопись первой половины 20 века
+</v>
+      </c>
+      <c r="B89" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
+        <v>88</v>
+      </c>
+      <c r="C89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Елизавета Петровна внутренняя политика
+")</f>
+        <v>Елизавета Петровна внутренняя политика
+</v>
+      </c>
+      <c r="D89" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),188.0)</f>
+        <v>188</v>
+      </c>
+      <c r="E89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нашествие Монголов. Золотая орда (1237-1480 гг.)
+")</f>
+        <v>Нашествие Монголов. Золотая орда (1237-1480 гг.)
+</v>
+      </c>
+      <c r="F89" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),288.0)</f>
+        <v>288</v>
+      </c>
+      <c r="G89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Александр III внешняя политика
+")</f>
+        <v>Александр III внешняя политика
+</v>
+      </c>
+      <c r="H89" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),388.0)</f>
+        <v>388</v>
+      </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -6214,14 +7308,46 @@
       <c r="Z89" s="1"/>
     </row>
     <row r="90">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
+      <c r="A90" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образование и наука первой половины 20 века
+")</f>
+        <v>Образование и наука первой половины 20 века
+</v>
+      </c>
+      <c r="B90" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89.0)</f>
+        <v>89</v>
+      </c>
+      <c r="C90" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Елизавета Петровна внешняя политика
+")</f>
+        <v>Елизавета Петровна внешняя политика
+</v>
+      </c>
+      <c r="D90" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),189.0)</f>
+        <v>189</v>
+      </c>
+      <c r="E90" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Александр Невский
+")</f>
+        <v>Александр Невский
+</v>
+      </c>
+      <c r="F90" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.0)</f>
+        <v>289</v>
+      </c>
+      <c r="G90" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Общественное мысль при Александре III
+")</f>
+        <v>Общественное мысль при Александре III
+</v>
+      </c>
+      <c r="H90" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),389.0)</f>
+        <v>389</v>
+      </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -6242,14 +7368,46 @@
       <c r="Z90" s="1"/>
     </row>
     <row r="91">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
+      <c r="A91" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кинематограф первой половины 20 века
+")</f>
+        <v>Кинематограф первой половины 20 века
+</v>
+      </c>
+      <c r="B91" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),90.0)</f>
+        <v>90</v>
+      </c>
+      <c r="C91" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Семилетняя война
+")</f>
+        <v>Семилетняя война
+</v>
+      </c>
+      <c r="D91" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),190.0)</f>
+        <v>190</v>
+      </c>
+      <c r="E91" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Возвышение Москвы (причины/последствия, плюсы и минусы, характерные черты)
+")</f>
+        <v>Возвышение Москвы (причины/последствия, плюсы и минусы, характерные черты)
+</v>
+      </c>
+      <c r="F91" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290.0)</f>
+        <v>290</v>
+      </c>
+      <c r="G91" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Николай II до 1905 г. внутренняя политика
+")</f>
+        <v>Николай II до 1905 г. внутренняя политика
+</v>
+      </c>
+      <c r="H91" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),390.0)</f>
+        <v>390</v>
+      </c>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -6270,14 +7428,46 @@
       <c r="Z91" s="1"/>
     </row>
     <row r="92">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
+      <c r="A92" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ельцин внутренняя политика
+")</f>
+        <v>Ельцин внутренняя политика
+</v>
+      </c>
+      <c r="B92" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),91.0)</f>
+        <v>91</v>
+      </c>
+      <c r="C92" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пётр III
+")</f>
+        <v>Пётр III
+</v>
+      </c>
+      <c r="D92" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),191.0)</f>
+        <v>191</v>
+      </c>
+      <c r="E92" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Даниил Московский. Юрий Данилович
+")</f>
+        <v>Даниил Московский. Юрий Данилович
+</v>
+      </c>
+      <c r="F92" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),291.0)</f>
+        <v>291</v>
+      </c>
+      <c r="G92" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Николай II до 1905 г. внешняя политика
+")</f>
+        <v>Николай II до 1905 г. внешняя политика
+</v>
+      </c>
+      <c r="H92" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),391.0)</f>
+        <v>391</v>
+      </c>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -6298,14 +7488,44 @@
       <c r="Z92" s="1"/>
     </row>
     <row r="93">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
+      <c r="A93" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ельцин внешняя политика
+")</f>
+        <v>Ельцин внешняя политика
+</v>
+      </c>
+      <c r="B93" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),92.0)</f>
+        <v>92</v>
+      </c>
+      <c r="C93" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Екатерина II внутренняя политика")</f>
+        <v>Екатерина II внутренняя политика</v>
+      </c>
+      <c r="D93" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),192.0)</f>
+        <v>192</v>
+      </c>
+      <c r="E93" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Иван Калита. Симеон Гордый и Иван Красный
+")</f>
+        <v>Иван Калита. Симеон Гордый и Иван Красный
+</v>
+      </c>
+      <c r="F93" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),292.0)</f>
+        <v>292</v>
+      </c>
+      <c r="G93" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Первая Русская революция
+")</f>
+        <v>Первая Русская революция
+</v>
+      </c>
+      <c r="H93" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.0)</f>
+        <v>392</v>
+      </c>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -6326,14 +7546,44 @@
       <c r="Z93" s="1"/>
     </row>
     <row r="94">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
+      <c r="A94" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Путин внутренняя политика 2000-2008 гг. и 2012-2014 гг.
+")</f>
+        <v>Путин внутренняя политика 2000-2008 гг. и 2012-2014 гг.
+</v>
+      </c>
+      <c r="B94" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93.0)</f>
+        <v>93</v>
+      </c>
+      <c r="C94" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пугачевщина")</f>
+        <v>Пугачевщина</v>
+      </c>
+      <c r="D94" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),193.0)</f>
+        <v>193</v>
+      </c>
+      <c r="E94" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дмитрий Донской
+")</f>
+        <v>Дмитрий Донской
+</v>
+      </c>
+      <c r="F94" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),293.0)</f>
+        <v>293</v>
+      </c>
+      <c r="G94" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Николай II 1907-1917 гг. внутренняя политика
+")</f>
+        <v>Николай II 1907-1917 гг. внутренняя политика
+</v>
+      </c>
+      <c r="H94" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),393.0)</f>
+        <v>393</v>
+      </c>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -6354,14 +7604,46 @@
       <c r="Z94" s="1"/>
     </row>
     <row r="95">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
+      <c r="A95" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эпоха тандема 2008-2012 гг.
+")</f>
+        <v>Эпоха тандема 2008-2012 гг.
+</v>
+      </c>
+      <c r="B95" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94.0)</f>
+        <v>94</v>
+      </c>
+      <c r="C95" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Екатерина II внешняя политика
+")</f>
+        <v>Екатерина II внешняя политика
+</v>
+      </c>
+      <c r="D95" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),194.0)</f>
+        <v>194</v>
+      </c>
+      <c r="E95" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Василий I
+")</f>
+        <v>Василий I
+</v>
+      </c>
+      <c r="F95" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),294.0)</f>
+        <v>294</v>
+      </c>
+      <c r="G95" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Николай II до 1907-1914 гг. внешняя политика
+")</f>
+        <v>Николай II до 1907-1914 гг. внешняя политика
+</v>
+      </c>
+      <c r="H95" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),394.0)</f>
+        <v>394</v>
+      </c>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -6382,14 +7664,46 @@
       <c r="Z95" s="1"/>
     </row>
     <row r="96">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
+      <c r="A96" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Путин внешняя политика
+")</f>
+        <v>Путин внешняя политика
+</v>
+      </c>
+      <c r="B96" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
+        <v>95</v>
+      </c>
+      <c r="C96" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Русско-турецкие войны при Екатерине II
+")</f>
+        <v>Русско-турецкие войны при Екатерине II
+</v>
+      </c>
+      <c r="D96" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),195.0)</f>
+        <v>195</v>
+      </c>
+      <c r="E96" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Василий II
+")</f>
+        <v>Василий II
+</v>
+      </c>
+      <c r="F96" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.0)</f>
+        <v>295</v>
+      </c>
+      <c r="G96" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Первая мировая война
+")</f>
+        <v>Первая мировая война
+</v>
+      </c>
+      <c r="H96" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),395.0)</f>
+        <v>395</v>
+      </c>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -6410,14 +7724,44 @@
       <c r="Z96" s="1"/>
     </row>
     <row r="97">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
+      <c r="A97" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература второй половины 20 века - начала 21 века")</f>
+        <v>Литература второй половины 20 века - начала 21 века</v>
+      </c>
+      <c r="B97" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),96.0)</f>
+        <v>96</v>
+      </c>
+      <c r="C97" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Павел I внутренняя политика
+")</f>
+        <v>Павел I внутренняя политика
+</v>
+      </c>
+      <c r="D97" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),196.0)</f>
+        <v>196</v>
+      </c>
+      <c r="E97" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Иван III внутренняя политика
+")</f>
+        <v>Иван III внутренняя политика
+</v>
+      </c>
+      <c r="F97" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.0)</f>
+        <v>296</v>
+      </c>
+      <c r="G97" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Общественное мысль, партии при Николае II
+")</f>
+        <v>Общественное мысль, партии при Николае II
+</v>
+      </c>
+      <c r="H97" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),396.0)</f>
+        <v>396</v>
+      </c>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -6438,14 +7782,42 @@
       <c r="Z97" s="1"/>
     </row>
     <row r="98">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
+      <c r="A98" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура второй половины 20 века - начала 21 века")</f>
+        <v>Архитектура второй половины 20 века - начала 21 века</v>
+      </c>
+      <c r="B98" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
+        <v>97</v>
+      </c>
+      <c r="C98" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Павел I внешняя политика
+")</f>
+        <v>Павел I внешняя политика
+</v>
+      </c>
+      <c r="D98" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),197.0)</f>
+        <v>197</v>
+      </c>
+      <c r="E98" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Иван III внешняя политика
+")</f>
+        <v>Иван III внешняя политика
+</v>
+      </c>
+      <c r="F98" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),297.0)</f>
+        <v>297</v>
+      </c>
+      <c r="G98" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература второй половины 19 века")</f>
+        <v>Литература второй половины 19 века</v>
+      </c>
+      <c r="H98" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),397.0)</f>
+        <v>397</v>
+      </c>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -6466,14 +7838,44 @@
       <c r="Z98" s="1"/>
     </row>
     <row r="99">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
+      <c r="A99" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Живопись второй половины 20 века - начала 21 века
+")</f>
+        <v>Живопись второй половины 20 века - начала 21 века
+</v>
+      </c>
+      <c r="B99" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98.0)</f>
+        <v>98</v>
+      </c>
+      <c r="C99" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература первой половины 18 века
+")</f>
+        <v>Литература первой половины 18 века
+</v>
+      </c>
+      <c r="D99" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),198.0)</f>
+        <v>198</v>
+      </c>
+      <c r="E99" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Василий III
+")</f>
+        <v>Василий III
+</v>
+      </c>
+      <c r="F99" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),298.0)</f>
+        <v>298</v>
+      </c>
+      <c r="G99" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература начала 20 века (1894-1917 гг.)")</f>
+        <v>Литература начала 20 века (1894-1917 гг.)</v>
+      </c>
+      <c r="H99" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),398.0)</f>
+        <v>398</v>
+      </c>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -6494,14 +7896,46 @@
       <c r="Z99" s="1"/>
     </row>
     <row r="100">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
+      <c r="A100" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образование и наука второй половины 20 века - начала 21 века
+")</f>
+        <v>Образование и наука второй половины 20 века - начала 21 века
+</v>
+      </c>
+      <c r="B100" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),99.0)</f>
+        <v>99</v>
+      </c>
+      <c r="C100" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература второй половины 18 века
+")</f>
+        <v>Литература второй половины 18 века
+</v>
+      </c>
+      <c r="D100" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),199.0)</f>
+        <v>199</v>
+      </c>
+      <c r="E100" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература раздробленности 1132-1263 гг.
+")</f>
+        <v>Литература раздробленности 1132-1263 гг.
+</v>
+      </c>
+      <c r="F100" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.0)</f>
+        <v>299</v>
+      </c>
+      <c r="G100" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура второй половины 19 века – начала 20 века
+")</f>
+        <v>Архитектура второй половины 19 века – начала 20 века
+</v>
+      </c>
+      <c r="H100" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),399.0)</f>
+        <v>399</v>
+      </c>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>

--- a/umit_files/umit_ist.xlsx
+++ b/umit_files/umit_ist.xlsx
@@ -1440,8 +1440,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),912.0)</f>
         <v>912</v>
       </c>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+      <c r="U13" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение сравнивать исторические события, процессы, явления")</f>
+        <v>Умение сравнивать исторические события, процессы, явления</v>
+      </c>
+      <c r="V13" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1012.0)</f>
+        <v>1012</v>
+      </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
@@ -1457,8 +1463,8 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Империя Чингисхана")</f>
-        <v>Империя Чингисхана</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Монгольская империя")</f>
+        <v>Монгольская империя</v>
       </c>
       <c r="D14" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),113.0)</f>
@@ -1721,8 +1727,8 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Последствия нашествия")</f>
-        <v>Последствия нашествия</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нашествия татаро-монголов")</f>
+        <v>Нашествия татаро-монголов</v>
       </c>
       <c r="D17" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),116.0)</f>
@@ -3278,8 +3284,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),733.0)</f>
         <v>733</v>
       </c>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
+      <c r="Q34" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ельцин внутренняя политика")</f>
+        <v>Ельцин внутренняя политика</v>
+      </c>
+      <c r="R34" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),833.0)</f>
+        <v>833</v>
+      </c>
       <c r="S34" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вторая мировая война: причины, состав участников, основные этапы и события, итоги")</f>
         <v>Вторая мировая война: причины, состав участников, основные этапы и события, итоги</v>
@@ -3360,8 +3372,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),734.0)</f>
         <v>734</v>
       </c>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
+      <c r="Q35" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ельцин внешняя политика")</f>
+        <v>Ельцин внешняя политика</v>
+      </c>
+      <c r="R35" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),834.0)</f>
+        <v>834</v>
+      </c>
       <c r="S35" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Власть и общество в годы войны")</f>
         <v>Власть и общество в годы войны</v>
@@ -3442,8 +3460,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),735.0)</f>
         <v>735</v>
       </c>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
+      <c r="Q36" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Путин внутренняя политика 2000-2008 гг. и 2012-2014 гг.")</f>
+        <v>Путин внутренняя политика 2000-2008 гг. и 2012-2014 гг.</v>
+      </c>
+      <c r="R36" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),835.0)</f>
+        <v>835</v>
+      </c>
       <c r="S36" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Перемены в мире под влиянием победы во Второй мировой войне над силами реакции и агрессии")</f>
         <v>Перемены в мире под влиянием победы во Второй мировой войне над силами реакции и агрессии</v>
@@ -3524,8 +3548,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),736.0)</f>
         <v>736</v>
       </c>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
+      <c r="Q37" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эпоха тандема 2008-2012 гг.")</f>
+        <v>Эпоха тандема 2008-2012 гг.</v>
+      </c>
+      <c r="R37" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),836.0)</f>
+        <v>836</v>
+      </c>
       <c r="S37" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Экономические и политические изменения в странах Запада")</f>
         <v>Экономические и политические изменения в странах Запада</v>
@@ -3606,8 +3636,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),737.0)</f>
         <v>737</v>
       </c>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
+      <c r="Q38" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Путин внешняя политика")</f>
+        <v>Путин внешняя политика</v>
+      </c>
+      <c r="R38" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),837.0)</f>
+        <v>837</v>
+      </c>
       <c r="S38" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Национально-освободительное движение в странах Востока")</f>
         <v>Национально-освободительное движение в странах Востока</v>
@@ -3688,8 +3724,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),738.0)</f>
         <v>738</v>
       </c>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
+      <c r="Q39" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература второй половины 20 века - начала 21 века")</f>
+        <v>Литература второй половины 20 века - начала 21 века</v>
+      </c>
+      <c r="R39" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),838.0)</f>
+        <v>838</v>
+      </c>
       <c r="S39" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Распад колониальных империй и его последстви")</f>
         <v>Распад колониальных империй и его последстви</v>
@@ -3770,8 +3812,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),739.0)</f>
         <v>739</v>
       </c>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
+      <c r="Q40" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура второй половины 20 века - начала 21 века")</f>
+        <v>Архитектура второй половины 20 века - начала 21 века</v>
+      </c>
+      <c r="R40" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),839.0)</f>
+        <v>839</v>
+      </c>
       <c r="S40" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мировая система социализма: зарождение, основные этапы развития")</f>
         <v>Мировая система социализма: зарождение, основные этапы развития</v>
@@ -3852,8 +3900,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),740.0)</f>
         <v>740</v>
       </c>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
+      <c r="Q41" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Живопись второй половины 20 века - начала 21 века")</f>
+        <v>Живопись второй половины 20 века - начала 21 века</v>
+      </c>
+      <c r="R41" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),840.0)</f>
+        <v>840</v>
+      </c>
       <c r="S41" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Холодная война и её влияние на послевоенный мир")</f>
         <v>Холодная война и её влияние на послевоенный мир</v>
@@ -3936,8 +3990,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),741.0)</f>
         <v>741</v>
       </c>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
+      <c r="Q42" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образование и наука второй половины 20 века - начала 21 века")</f>
+        <v>Образование и наука второй половины 20 века - начала 21 века</v>
+      </c>
+      <c r="R42" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),841.0)</f>
+        <v>841</v>
+      </c>
       <c r="S42" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Научно-техническая революция и её воздействие на развитие экономики, культуры и повседневной жизни")</f>
         <v>Научно-техническая революция и её воздействие на развитие экономики, культуры и повседневной жизни</v>
@@ -3963,8 +4023,8 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Жена Софья Витовтовна")</f>
-        <v>Жена Софья Витовтовна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Жена Василия I")</f>
+        <v>Жена Василия I</v>
       </c>
       <c r="D43" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),142.0)</f>
@@ -4018,8 +4078,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),742.0)</f>
         <v>742</v>
       </c>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
+      <c r="Q43" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кинематограф второй половины 20 века - начала 21 века")</f>
+        <v>Кинематограф второй половины 20 века - начала 21 века</v>
+      </c>
+      <c r="R43" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),842.0)</f>
+        <v>842</v>
+      </c>
       <c r="S43" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Современный мир в условиях глобализации.")</f>
         <v>Современный мир в условиях глобализации.</v>
@@ -4266,8 +4332,14 @@
       </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
+      <c r="S46" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Всемирная История до Рюрика")</f>
+        <v>Всемирная История до Рюрика</v>
+      </c>
+      <c r="T46" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),945.0)</f>
+        <v>945</v>
+      </c>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
@@ -4342,8 +4414,14 @@
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
+      <c r="S47" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Всемирная история Средних веков")</f>
+        <v>Всемирная история Средних веков</v>
+      </c>
+      <c r="T47" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),946.0)</f>
+        <v>946</v>
+      </c>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
@@ -4418,8 +4496,14 @@
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
+      <c r="S48" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Всемирная история XVI-XVII веков")</f>
+        <v>Всемирная история XVI-XVII веков</v>
+      </c>
+      <c r="T48" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),947.0)</f>
+        <v>947</v>
+      </c>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
@@ -4494,8 +4578,14 @@
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
+      <c r="S49" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Всемирная история XVIII века")</f>
+        <v>Всемирная история XVIII века</v>
+      </c>
+      <c r="T49" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),948.0)</f>
+        <v>948</v>
+      </c>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
@@ -4570,8 +4660,14 @@
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
+      <c r="S50" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Французская революция")</f>
+        <v>Французская революция</v>
+      </c>
+      <c r="T50" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),949.0)</f>
+        <v>949</v>
+      </c>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
@@ -4646,8 +4742,14 @@
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
+      <c r="S51" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Европейские страны в XIX – начале XX в.")</f>
+        <v>Европейские страны в XIX – начале XX в.</v>
+      </c>
+      <c r="T51" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),950.0)</f>
+        <v>950</v>
+      </c>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
@@ -4724,8 +4826,14 @@
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
+      <c r="S52" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"США в XIX – начале XX в.")</f>
+        <v>США в XIX – начале XX в.</v>
+      </c>
+      <c r="T52" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),951.0)</f>
+        <v>951</v>
+      </c>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
@@ -4804,8 +4912,14 @@
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
+      <c r="S53" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Первая мировая война")</f>
+        <v>Первая мировая война</v>
+      </c>
+      <c r="T53" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),952.0)</f>
+        <v>952</v>
+      </c>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
@@ -4882,8 +4996,14 @@
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
+      <c r="S54" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Латинская Америка и Восток в XIX – начале XX в.")</f>
+        <v>Латинская Америка и Восток в XIX – начале XX в.</v>
+      </c>
+      <c r="T54" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),953.0)</f>
+        <v>953</v>
+      </c>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
@@ -4962,8 +5082,14 @@
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
+      <c r="S55" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Европейские страны в 20-30-е годы XX в.")</f>
+        <v>Европейские страны в 20-30-е годы XX в.</v>
+      </c>
+      <c r="T55" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),954.0)</f>
+        <v>954</v>
+      </c>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
@@ -5040,8 +5166,14 @@
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
+      <c r="S56" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"США в 20-30-е годы XX в.")</f>
+        <v>США в 20-30-е годы XX в.</v>
+      </c>
+      <c r="T56" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),955.0)</f>
+        <v>955</v>
+      </c>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
@@ -5120,8 +5252,14 @@
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
+      <c r="S57" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Латинская Америка и Восток в XX в.")</f>
+        <v>Латинская Америка и Восток в XX в.</v>
+      </c>
+      <c r="T57" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),956.0)</f>
+        <v>956</v>
+      </c>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
@@ -5202,8 +5340,14 @@
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
+      <c r="S58" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вторая мировая война")</f>
+        <v>Вторая мировая война</v>
+      </c>
+      <c r="T58" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),957.0)</f>
+        <v>957</v>
+      </c>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
@@ -5282,8 +5426,14 @@
       </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
+      <c r="S59" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"США в второй половине XX в. Холодная война")</f>
+        <v>США в второй половине XX в. Холодная война</v>
+      </c>
+      <c r="T59" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),958.0)</f>
+        <v>958</v>
+      </c>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
@@ -5364,8 +5514,14 @@
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
+      <c r="S60" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Европейские страны в второй половине XX в.")</f>
+        <v>Европейские страны в второй половине XX в.</v>
+      </c>
+      <c r="T60" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),959.0)</f>
+        <v>959</v>
+      </c>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
@@ -5588,8 +5744,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),462.0)</f>
         <v>462</v>
       </c>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
+      <c r="K63" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отмена крепостного права")</f>
+        <v>Отмена крепостного права</v>
+      </c>
+      <c r="L63" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),562.0)</f>
+        <v>562</v>
+      </c>
       <c r="M63" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Создание ООН")</f>
         <v>Создание ООН</v>
@@ -5666,8 +5828,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),463.0)</f>
         <v>463</v>
       </c>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
+      <c r="K64" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Великие реформы (кроме отмены КП)")</f>
+        <v>Великие реформы (кроме отмены КП)</v>
+      </c>
+      <c r="L64" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),563.0)</f>
+        <v>563</v>
+      </c>
       <c r="M64" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Причины победы СССР")</f>
         <v>Причины победы СССР</v>
@@ -5736,10 +5904,22 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),364.0)</f>
         <v>364</v>
       </c>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
+      <c r="I65" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Екатерина II внутренняя политика")</f>
+        <v>Екатерина II внутренняя политика</v>
+      </c>
+      <c r="J65" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),464.0)</f>
+        <v>464</v>
+      </c>
+      <c r="K65" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Александр II внутренняя политика в последние годы")</f>
+        <v>Александр II внутренняя политика в последние годы</v>
+      </c>
+      <c r="L65" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),564.0)</f>
+        <v>564</v>
+      </c>
       <c r="M65" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Итоги войны")</f>
         <v>Итоги войны</v>
@@ -5810,10 +5990,22 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),365.0)</f>
         <v>365</v>
       </c>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
+      <c r="I66" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пугачевщина")</f>
+        <v>Пугачевщина</v>
+      </c>
+      <c r="J66" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),465.0)</f>
+        <v>465</v>
+      </c>
+      <c r="K66" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Общественное мысль при Александре II")</f>
+        <v>Общественное мысль при Александре II</v>
+      </c>
+      <c r="L66" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),565.0)</f>
+        <v>565</v>
+      </c>
       <c r="M66" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Герои ВОВ")</f>
         <v>Герои ВОВ</v>
@@ -5880,10 +6072,22 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),366.0)</f>
         <v>366</v>
       </c>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
+      <c r="I67" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Екатерина II внешняя политика")</f>
+        <v>Екатерина II внешняя политика</v>
+      </c>
+      <c r="J67" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),466.0)</f>
+        <v>466</v>
+      </c>
+      <c r="K67" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Александр II внешняя политика")</f>
+        <v>Александр II внешняя политика</v>
+      </c>
+      <c r="L67" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),566.0)</f>
+        <v>566</v>
+      </c>
       <c r="M67" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"СССР в послевоенный период")</f>
         <v>СССР в послевоенный период</v>
@@ -5892,8 +6096,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),666.0)</f>
         <v>666</v>
       </c>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
+      <c r="O67" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хрущев внутренняя политика")</f>
+        <v>Хрущев внутренняя политика</v>
+      </c>
+      <c r="P67" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),766.0)</f>
+        <v>766</v>
+      </c>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
@@ -5944,10 +6154,22 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),367.0)</f>
         <v>367</v>
       </c>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
+      <c r="I68" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Русско-турецкие войны при Екатерине II")</f>
+        <v>Русско-турецкие войны при Екатерине II</v>
+      </c>
+      <c r="J68" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),467.0)</f>
+        <v>467</v>
+      </c>
+      <c r="K68" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Александр III внутренняя политика")</f>
+        <v>Александр III внутренняя политика</v>
+      </c>
+      <c r="L68" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),567.0)</f>
+        <v>567</v>
+      </c>
       <c r="M68" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Источники восстановления экономики")</f>
         <v>Источники восстановления экономики</v>
@@ -5956,8 +6178,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),667.0)</f>
         <v>667</v>
       </c>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
+      <c r="O68" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Экономика при Хрущеве")</f>
+        <v>Экономика при Хрущеве</v>
+      </c>
+      <c r="P68" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),767.0)</f>
+        <v>767</v>
+      </c>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
@@ -6008,10 +6236,22 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),368.0)</f>
         <v>368</v>
       </c>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
+      <c r="I69" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Павел I внутренняя политика")</f>
+        <v>Павел I внутренняя политика</v>
+      </c>
+      <c r="J69" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),468.0)</f>
+        <v>468</v>
+      </c>
+      <c r="K69" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Александр III внешняя политика")</f>
+        <v>Александр III внешняя политика</v>
+      </c>
+      <c r="L69" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),568.0)</f>
+        <v>568</v>
+      </c>
       <c r="M69" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Послевоенные реформы")</f>
         <v>Послевоенные реформы</v>
@@ -6020,8 +6260,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),668.0)</f>
         <v>668</v>
       </c>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
+      <c r="O69" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хрущев внешняя политика")</f>
+        <v>Хрущев внешняя политика</v>
+      </c>
+      <c r="P69" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),768.0)</f>
+        <v>768</v>
+      </c>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
@@ -6072,10 +6318,22 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
         <v>369</v>
       </c>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
+      <c r="I70" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Павел I внешняя политика")</f>
+        <v>Павел I внешняя политика</v>
+      </c>
+      <c r="J70" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),469.0)</f>
+        <v>469</v>
+      </c>
+      <c r="K70" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Общественное мысль при Александре III")</f>
+        <v>Общественное мысль при Александре III</v>
+      </c>
+      <c r="L70" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),569.0)</f>
+        <v>569</v>
+      </c>
       <c r="M70" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Социальная политика после войны")</f>
         <v>Социальная политика после войны</v>
@@ -6084,8 +6342,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),669.0)</f>
         <v>669</v>
       </c>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
+      <c r="O70" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брежнев внутренняя политика")</f>
+        <v>Брежнев внутренняя политика</v>
+      </c>
+      <c r="P70" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),769.0)</f>
+        <v>769</v>
+      </c>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
@@ -6138,10 +6402,22 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),370.0)</f>
         <v>370</v>
       </c>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
+      <c r="I71" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература первой половины 18 века")</f>
+        <v>Литература первой половины 18 века</v>
+      </c>
+      <c r="J71" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),470.0)</f>
+        <v>470</v>
+      </c>
+      <c r="K71" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Николай II до 1905 г. внутренняя политика")</f>
+        <v>Николай II до 1905 г. внутренняя политика</v>
+      </c>
+      <c r="L71" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),570.0)</f>
+        <v>570</v>
+      </c>
       <c r="M71" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Экономика послевоенного времени")</f>
         <v>Экономика послевоенного времени</v>
@@ -6150,8 +6426,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),670.0)</f>
         <v>670</v>
       </c>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
+      <c r="O71" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Экономика при Брежневе")</f>
+        <v>Экономика при Брежневе</v>
+      </c>
+      <c r="P71" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),770.0)</f>
+        <v>770</v>
+      </c>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
@@ -6204,10 +6486,22 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),371.0)</f>
         <v>371</v>
       </c>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
+      <c r="I72" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература второй половины 18 века")</f>
+        <v>Литература второй половины 18 века</v>
+      </c>
+      <c r="J72" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),471.0)</f>
+        <v>471</v>
+      </c>
+      <c r="K72" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Николай II до 1905 г. внешняя политика")</f>
+        <v>Николай II до 1905 г. внешняя политика</v>
+      </c>
+      <c r="L72" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),571.0)</f>
+        <v>571</v>
+      </c>
       <c r="M72" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Четвертая пятилетка ")</f>
         <v>Четвертая пятилетка </v>
@@ -6216,8 +6510,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),671.0)</f>
         <v>671</v>
       </c>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
+      <c r="O72" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брежнев внешняя политика")</f>
+        <v>Брежнев внешняя политика</v>
+      </c>
+      <c r="P72" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),771.0)</f>
+        <v>771</v>
+      </c>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
@@ -6270,10 +6570,22 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),372.0)</f>
         <v>372</v>
       </c>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
+      <c r="I73" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура первой половины 18 века")</f>
+        <v>Архитектура первой половины 18 века</v>
+      </c>
+      <c r="J73" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),472.0)</f>
+        <v>472</v>
+      </c>
+      <c r="K73" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Первая Русская революция")</f>
+        <v>Первая Русская революция</v>
+      </c>
+      <c r="L73" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),572.0)</f>
+        <v>572</v>
+      </c>
       <c r="M73" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пятая пятилетка")</f>
         <v>Пятая пятилетка</v>
@@ -6282,8 +6594,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),672.0)</f>
         <v>672</v>
       </c>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
+      <c r="O73" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Андропов. Черненко")</f>
+        <v>Андропов. Черненко</v>
+      </c>
+      <c r="P73" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),772.0)</f>
+        <v>772</v>
+      </c>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
@@ -6336,10 +6654,22 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),373.0)</f>
         <v>373</v>
       </c>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
+      <c r="I74" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Живопись первой половины 18 века")</f>
+        <v>Живопись первой половины 18 века</v>
+      </c>
+      <c r="J74" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),473.0)</f>
+        <v>473</v>
+      </c>
+      <c r="K74" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Николай II 1907-1917 гг. внутренняя политика")</f>
+        <v>Николай II 1907-1917 гг. внутренняя политика</v>
+      </c>
+      <c r="L74" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),573.0)</f>
+        <v>573</v>
+      </c>
       <c r="M74" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Послевоенные репрессии")</f>
         <v>Послевоенные репрессии</v>
@@ -6348,8 +6678,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),673.0)</f>
         <v>673</v>
       </c>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
+      <c r="O74" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Горбачев внутренняя политика. Экономика")</f>
+        <v>Горбачев внутренняя политика. Экономика</v>
+      </c>
+      <c r="P74" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),773.0)</f>
+        <v>773</v>
+      </c>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
@@ -6402,10 +6738,22 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),374.0)</f>
         <v>374</v>
       </c>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
+      <c r="I75" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образование и наука первой половины 18 века")</f>
+        <v>Образование и наука первой половины 18 века</v>
+      </c>
+      <c r="J75" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),474.0)</f>
+        <v>474</v>
+      </c>
+      <c r="K75" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Николай II до 1907-1914 гг. внешняя политика")</f>
+        <v>Николай II до 1907-1914 гг. внешняя политика</v>
+      </c>
+      <c r="L75" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),574.0)</f>
+        <v>574</v>
+      </c>
       <c r="M75" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Атомное оружие")</f>
         <v>Атомное оружие</v>
@@ -6414,8 +6762,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),674.0)</f>
         <v>674</v>
       </c>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
+      <c r="O75" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Горбачев внутренняя политика. Политика")</f>
+        <v>Горбачев внутренняя политика. Политика</v>
+      </c>
+      <c r="P75" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),774.0)</f>
+        <v>774</v>
+      </c>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
@@ -6468,10 +6822,22 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),375.0)</f>
         <v>375</v>
       </c>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
+      <c r="I76" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература второй половины 18 века")</f>
+        <v>Литература второй половины 18 века</v>
+      </c>
+      <c r="J76" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),475.0)</f>
+        <v>475</v>
+      </c>
+      <c r="K76" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Первая мировая война")</f>
+        <v>Первая мировая война</v>
+      </c>
+      <c r="L76" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),575.0)</f>
+        <v>575</v>
+      </c>
       <c r="M76" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внешняя политика после войны")</f>
         <v>Внешняя политика после войны</v>
@@ -6480,8 +6846,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),675.0)</f>
         <v>675</v>
       </c>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
+      <c r="O76" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Горбачев внешняя политика")</f>
+        <v>Горбачев внешняя политика</v>
+      </c>
+      <c r="P76" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),775.0)</f>
+        <v>775</v>
+      </c>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
@@ -6532,10 +6904,22 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),376.0)</f>
         <v>376</v>
       </c>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
+      <c r="I77" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура второй половины 18 века")</f>
+        <v>Архитектура второй половины 18 века</v>
+      </c>
+      <c r="J77" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),476.0)</f>
+        <v>476</v>
+      </c>
+      <c r="K77" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Общественное мысль, партии при Николае II")</f>
+        <v>Общественное мысль, партии при Николае II</v>
+      </c>
+      <c r="L77" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),576.0)</f>
+        <v>576</v>
+      </c>
       <c r="M77" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Причины холодной войны")</f>
         <v>Причины холодной войны</v>
@@ -6544,8 +6928,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),676.0)</f>
         <v>676</v>
       </c>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
+      <c r="O77" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1991 год: ГКЧП, Распад СССР, национальные процессы")</f>
+        <v>1991 год: ГКЧП, Распад СССР, национальные процессы</v>
+      </c>
+      <c r="P77" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),776.0)</f>
+        <v>776</v>
+      </c>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
@@ -6598,10 +6988,22 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),377.0)</f>
         <v>377</v>
       </c>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
+      <c r="I78" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Живопись второй половины 18 века")</f>
+        <v>Живопись второй половины 18 века</v>
+      </c>
+      <c r="J78" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),477.0)</f>
+        <v>477</v>
+      </c>
+      <c r="K78" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература второй половины 19 века")</f>
+        <v>Литература второй половины 19 века</v>
+      </c>
+      <c r="L78" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),577.0)</f>
+        <v>577</v>
+      </c>
       <c r="M78" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Холодная война. Формирование блоков")</f>
         <v> Холодная война. Формирование блоков</v>
@@ -6664,10 +7066,22 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),378.0)</f>
         <v>378</v>
       </c>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
+      <c r="I79" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образование и наука второй половины 18 века")</f>
+        <v>Образование и наука второй половины 18 века</v>
+      </c>
+      <c r="J79" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),478.0)</f>
+        <v>478</v>
+      </c>
+      <c r="K79" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература начала 20 века (1894-1917 гг.)")</f>
+        <v>Литература начала 20 века (1894-1917 гг.)</v>
+      </c>
+      <c r="L79" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),578.0)</f>
+        <v>578</v>
+      </c>
       <c r="M79" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внешняя политика в последние годы Сталина")</f>
         <v>Внешняя политика в последние годы Сталина</v>
@@ -6728,10 +7142,22 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),379.0)</f>
         <v>379</v>
       </c>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
+      <c r="I80" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Александр I (либеральный) внутренняя политика")</f>
+        <v>Александр I (либеральный) внутренняя политика</v>
+      </c>
+      <c r="J80" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),479.0)</f>
+        <v>479</v>
+      </c>
+      <c r="K80" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура второй половины 19 века – начала 20 века")</f>
+        <v>Архитектура второй половины 19 века – начала 20 века</v>
+      </c>
+      <c r="L80" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),579.0)</f>
+        <v>579</v>
+      </c>
       <c r="M80" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Особенности культуры при Сталине")</f>
         <v>Особенности культуры при Сталине</v>
@@ -6792,10 +7218,22 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),380.0)</f>
         <v>380</v>
       </c>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
+      <c r="I81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Александр I (либеральный) внешняя политика")</f>
+        <v>Александр I (либеральный) внешняя политика</v>
+      </c>
+      <c r="J81" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),480.0)</f>
+        <v>480</v>
+      </c>
+      <c r="K81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Живопись второй половины 19 века – начала 20 века")</f>
+        <v>Живопись второй половины 19 века – начала 20 века</v>
+      </c>
+      <c r="L81" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),580.0)</f>
+        <v>580</v>
+      </c>
       <c r="M81" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература при Сталине")</f>
         <v>Литература при Сталине</v>
@@ -6856,10 +7294,22 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),381.0)</f>
         <v>381</v>
       </c>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
+      <c r="I82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отечественная война. Освободительный поход. Венский конгресс")</f>
+        <v>Отечественная война. Освободительный поход. Венский конгресс</v>
+      </c>
+      <c r="J82" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),481.0)</f>
+        <v>481</v>
+      </c>
+      <c r="K82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образование и наука второй половины 19 века – начала 20 века")</f>
+        <v>Образование и наука второй половины 19 века – начала 20 века</v>
+      </c>
+      <c r="L82" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),581.0)</f>
+        <v>581</v>
+      </c>
       <c r="M82" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура при Сталине")</f>
         <v>Архитектура при Сталине</v>
@@ -6920,10 +7370,22 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),382.0)</f>
         <v>382</v>
       </c>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
+      <c r="I83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Александр I (консервативный) внутренняя политика")</f>
+        <v>Александр I (консервативный) внутренняя политика</v>
+      </c>
+      <c r="J83" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),482.0)</f>
+        <v>482</v>
+      </c>
+      <c r="K83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Февральская революция")</f>
+        <v>Февральская революция</v>
+      </c>
+      <c r="L83" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),582.0)</f>
+        <v>582</v>
+      </c>
       <c r="M83" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Наука при Сталине")</f>
         <v>Наука при Сталине</v>
@@ -6982,10 +7444,22 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),383.0)</f>
         <v>383</v>
       </c>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
+      <c r="I84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Александр I (консервативный) внешняя политика")</f>
+        <v>Александр I (консервативный) внешняя политика</v>
+      </c>
+      <c r="J84" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),483.0)</f>
+        <v>483</v>
+      </c>
+      <c r="K84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Временное правительство")</f>
+        <v>Временное правительство</v>
+      </c>
+      <c r="L84" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),583.0)</f>
+        <v>583</v>
+      </c>
       <c r="M84" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Живопись при Сталине")</f>
         <v>Живопись при Сталине</v>
@@ -7048,12 +7522,30 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),384.0)</f>
         <v>384</v>
       </c>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
+      <c r="I85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Декабристы")</f>
+        <v>Декабристы</v>
+      </c>
+      <c r="J85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),484.0)</f>
+        <v>484</v>
+      </c>
+      <c r="K85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Октябрьская революция")</f>
+        <v>Октябрьская революция</v>
+      </c>
+      <c r="L85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),584.0)</f>
+        <v>584</v>
+      </c>
+      <c r="M85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Становление советской власти (первые декреты, учредительное собрание)")</f>
+        <v>Становление советской власти (первые декреты, учредительное собрание)</v>
+      </c>
+      <c r="N85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),684.0)</f>
+        <v>684</v>
+      </c>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -7108,12 +7600,24 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),385.0)</f>
         <v>385</v>
       </c>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
+      <c r="I86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Николай I внутренняя политика")</f>
+        <v>Николай I внутренняя политика</v>
+      </c>
+      <c r="J86" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),485.0)</f>
+        <v>485</v>
+      </c>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
+      <c r="M86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гражданская война. Советско-польская война")</f>
+        <v>Гражданская война. Советско-польская война</v>
+      </c>
+      <c r="N86" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),685.0)</f>
+        <v>685</v>
+      </c>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
@@ -7168,12 +7672,24 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),386.0)</f>
         <v>386</v>
       </c>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
+      <c r="I87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Общественное мысль при Николае I")</f>
+        <v>Общественное мысль при Николае I</v>
+      </c>
+      <c r="J87" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),486.0)</f>
+        <v>486</v>
+      </c>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
+      <c r="M87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1920-е гг. внутренняя политика")</f>
+        <v>1920-е гг. внутренняя политика</v>
+      </c>
+      <c r="N87" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),686.0)</f>
+        <v>686</v>
+      </c>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -7228,12 +7744,24 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387.0)</f>
         <v>387</v>
       </c>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
+      <c r="I88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Николай I внешняя политика")</f>
+        <v>Николай I внешняя политика</v>
+      </c>
+      <c r="J88" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),487.0)</f>
+        <v>487</v>
+      </c>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
+      <c r="M88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1920-е гг. внешняя политика")</f>
+        <v>1920-е гг. внешняя политика</v>
+      </c>
+      <c r="N88" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),687.0)</f>
+        <v>687</v>
+      </c>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -7288,12 +7816,24 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),388.0)</f>
         <v>388</v>
       </c>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
+      <c r="I89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Крымская война")</f>
+        <v>Крымская война</v>
+      </c>
+      <c r="J89" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),488.0)</f>
+        <v>488</v>
+      </c>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
+      <c r="M89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1930-е гг. внутренняя политика")</f>
+        <v>1930-е гг. внутренняя политика</v>
+      </c>
+      <c r="N89" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),688.0)</f>
+        <v>688</v>
+      </c>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
@@ -7348,12 +7888,24 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),389.0)</f>
         <v>389</v>
       </c>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
+      <c r="I90" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кавказская война ")</f>
+        <v>Кавказская война </v>
+      </c>
+      <c r="J90" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),489.0)</f>
+        <v>489</v>
+      </c>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
+      <c r="M90" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1930-е гг. внешняя политика")</f>
+        <v>1930-е гг. внешняя политика</v>
+      </c>
+      <c r="N90" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),689.0)</f>
+        <v>689</v>
+      </c>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
@@ -7408,12 +7960,24 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),390.0)</f>
         <v>390</v>
       </c>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
+      <c r="I91" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература первой половины 19 века")</f>
+        <v>Литература первой половины 19 века</v>
+      </c>
+      <c r="J91" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),490.0)</f>
+        <v>490</v>
+      </c>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
+      <c r="M91" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Великая Отечественная война 1941-1943 гг. Великая Отечественная война 1943-1945 гг. Герои ВОВ")</f>
+        <v>Великая Отечественная война 1941-1943 гг. Великая Отечественная война 1943-1945 гг. Герои ВОВ</v>
+      </c>
+      <c r="N91" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),690.0)</f>
+        <v>690</v>
+      </c>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -7468,12 +8032,24 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),391.0)</f>
         <v>391</v>
       </c>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
+      <c r="I92" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура первой половины 19 века")</f>
+        <v>Архитектура первой половины 19 века</v>
+      </c>
+      <c r="J92" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),491.0)</f>
+        <v>491</v>
+      </c>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
+      <c r="M92" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Послевоенный период: внутренняя политика")</f>
+        <v>Послевоенный период: внутренняя политика</v>
+      </c>
+      <c r="N92" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),691.0)</f>
+        <v>691</v>
+      </c>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
@@ -7526,12 +8102,24 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.0)</f>
         <v>392</v>
       </c>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
+      <c r="I93" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Живопись первой половины 19 века")</f>
+        <v>Живопись первой половины 19 века</v>
+      </c>
+      <c r="J93" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),492.0)</f>
+        <v>492</v>
+      </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
+      <c r="M93" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Послевоенный период: внешняя политика")</f>
+        <v>Послевоенный период: внешняя политика</v>
+      </c>
+      <c r="N93" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),692.0)</f>
+        <v>692</v>
+      </c>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
@@ -7584,12 +8172,24 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),393.0)</f>
         <v>393</v>
       </c>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
+      <c r="I94" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образование и наука первой половины 19 века")</f>
+        <v>Образование и наука первой половины 19 века</v>
+      </c>
+      <c r="J94" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),493.0)</f>
+        <v>493</v>
+      </c>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
+      <c r="M94" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература первой половины 20 века")</f>
+        <v>Литература первой половины 20 века</v>
+      </c>
+      <c r="N94" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),693.0)</f>
+        <v>693</v>
+      </c>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
@@ -7648,8 +8248,14 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
+      <c r="M95" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура первой половины 20 века")</f>
+        <v>Архитектура первой половины 20 века</v>
+      </c>
+      <c r="N95" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),694.0)</f>
+        <v>694</v>
+      </c>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
@@ -7708,8 +8314,14 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
+      <c r="M96" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Живопись первой половины 20 века")</f>
+        <v>Живопись первой половины 20 века</v>
+      </c>
+      <c r="N96" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),695.0)</f>
+        <v>695</v>
+      </c>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
@@ -7766,8 +8378,14 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
+      <c r="M97" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образование и наука первой половины 20 века")</f>
+        <v>Образование и наука первой половины 20 века</v>
+      </c>
+      <c r="N97" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),696.0)</f>
+        <v>696</v>
+      </c>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
@@ -7822,8 +8440,14 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
+      <c r="M98" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кинематограф первой половины 20 века")</f>
+        <v>Кинематограф первой половины 20 века</v>
+      </c>
+      <c r="N98" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),697.0)</f>
+        <v>697</v>
+      </c>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
@@ -7956,14 +8580,38 @@
       <c r="Z100" s="1"/>
     </row>
     <row r="101">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
+      <c r="A101" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Соседи славян")</f>
+        <v>Соседи славян</v>
+      </c>
+      <c r="B101" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1101.0)</f>
+        <v>1101</v>
+      </c>
+      <c r="C101" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Раздробленность 1132-1263 гг. (причины/последствия, плюсы и минусы, характерные черты)")</f>
+        <v>Раздробленность 1132-1263 гг. (причины/последствия, плюсы и минусы, характерные черты)</v>
+      </c>
+      <c r="D101" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1201.0)</f>
+        <v>1201</v>
+      </c>
+      <c r="E101" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Елена Глинская и Боярское правление")</f>
+        <v>Елена Глинская и Боярское правление</v>
+      </c>
+      <c r="F101" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1301.0)</f>
+        <v>1301</v>
+      </c>
+      <c r="G101" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Михаил Федорович внутренняя политика")</f>
+        <v>Михаил Федорович внутренняя политика</v>
+      </c>
+      <c r="H101" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1401.0)</f>
+        <v>1401</v>
+      </c>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -7984,14 +8632,38 @@
       <c r="Z101" s="1"/>
     </row>
     <row r="102">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
+      <c r="A102" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Славяне")</f>
+        <v>Славяне</v>
+      </c>
+      <c r="B102" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1102.0)</f>
+        <v>1102</v>
+      </c>
+      <c r="C102" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Князья Владимиро-Суздальского княжества")</f>
+        <v>Князья Владимиро-Суздальского княжества</v>
+      </c>
+      <c r="D102" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1202.0)</f>
+        <v>1202</v>
+      </c>
+      <c r="E102" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Иван Грозный внутренняя политика 1547-1565 гг.")</f>
+        <v>Иван Грозный внутренняя политика 1547-1565 гг.</v>
+      </c>
+      <c r="F102" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1302.0)</f>
+        <v>1302</v>
+      </c>
+      <c r="G102" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Михаил Федорович внешняя политика")</f>
+        <v>Михаил Федорович внешняя политика</v>
+      </c>
+      <c r="H102" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1402.0)</f>
+        <v>1402</v>
+      </c>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -8012,14 +8684,38 @@
       <c r="Z102" s="1"/>
     </row>
     <row r="103">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
+      <c r="A103" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Экономика до появления государства Торговые пути")</f>
+        <v>Экономика до появления государства Торговые пути</v>
+      </c>
+      <c r="B103" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1103.0)</f>
+        <v>1103</v>
+      </c>
+      <c r="C103" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Новгородское княжество и Псков")</f>
+        <v>Новгородское княжество и Псков</v>
+      </c>
+      <c r="D103" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1203.0)</f>
+        <v>1203</v>
+      </c>
+      <c r="E103" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Опричнина и последние годы")</f>
+        <v>Опричнина и последние годы</v>
+      </c>
+      <c r="F103" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1303.0)</f>
+        <v>1303</v>
+      </c>
+      <c r="G103" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Алексей Михайлович внутренняя политика")</f>
+        <v>Алексей Михайлович внутренняя политика</v>
+      </c>
+      <c r="H103" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1403.0)</f>
+        <v>1403</v>
+      </c>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -8040,14 +8736,38 @@
       <c r="Z103" s="1"/>
     </row>
     <row r="104">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
+      <c r="A104" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Рюрик. Норманнская, антинорманнская теория")</f>
+        <v>Рюрик. Норманнская, антинорманнская теория</v>
+      </c>
+      <c r="B104" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1104.0)</f>
+        <v>1104</v>
+      </c>
+      <c r="C104" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Киевское княжество")</f>
+        <v>Киевское княжество</v>
+      </c>
+      <c r="D104" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1204.0)</f>
+        <v>1204</v>
+      </c>
+      <c r="E104" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Иван Грозный внешняя политика")</f>
+        <v>Иван Грозный внешняя политика</v>
+      </c>
+      <c r="F104" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1304.0)</f>
+        <v>1304</v>
+      </c>
+      <c r="G104" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Алексей Михайлович внешняя политика")</f>
+        <v>Алексей Михайлович внешняя политика</v>
+      </c>
+      <c r="H104" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1404.0)</f>
+        <v>1404</v>
+      </c>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -8068,14 +8788,38 @@
       <c r="Z104" s="1"/>
     </row>
     <row r="105">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
+      <c r="A105" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ольга — Святослав")</f>
+        <v>Ольга — Святослав</v>
+      </c>
+      <c r="B105" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1105.0)</f>
+        <v>1105</v>
+      </c>
+      <c r="C105" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Галицко-Волынское княжество")</f>
+        <v>Галицко-Волынское княжество</v>
+      </c>
+      <c r="D105" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1205.0)</f>
+        <v>1205</v>
+      </c>
+      <c r="E105" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ливонская война")</f>
+        <v>Ливонская война</v>
+      </c>
+      <c r="F105" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1305.0)</f>
+        <v>1305</v>
+      </c>
+      <c r="G105" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Русско-польская война 1654-1667 гг.")</f>
+        <v>Русско-польская война 1654-1667 гг.</v>
+      </c>
+      <c r="H105" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1405.0)</f>
+        <v>1405</v>
+      </c>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -8096,14 +8840,38 @@
       <c r="Z105" s="1"/>
     </row>
     <row r="106">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
+      <c r="A106" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Владимир Святой")</f>
+        <v>Владимир Святой</v>
+      </c>
+      <c r="B106" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1106.0)</f>
+        <v>1106</v>
+      </c>
+      <c r="C106" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Монголы (древность – 1237 гг.)")</f>
+        <v>Монголы (древность – 1237 гг.)</v>
+      </c>
+      <c r="D106" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1206.0)</f>
+        <v>1206</v>
+      </c>
+      <c r="E106" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Федор Иоаннович")</f>
+        <v>Федор Иоаннович</v>
+      </c>
+      <c r="F106" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1306.0)</f>
+        <v>1306</v>
+      </c>
+      <c r="G106" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Федор Алексеевич")</f>
+        <v>Федор Алексеевич</v>
+      </c>
+      <c r="H106" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1406.0)</f>
+        <v>1406</v>
+      </c>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -8124,14 +8892,38 @@
       <c r="Z106" s="1"/>
     </row>
     <row r="107">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
+      <c r="A107" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Олег Вещий — Игорь Рюрикович")</f>
+        <v>Олег Вещий — Игорь Рюрикович</v>
+      </c>
+      <c r="B107" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1107.0)</f>
+        <v>1107</v>
+      </c>
+      <c r="C107" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нашествие Монголов. Золотая орда (1237-1480 гг.)")</f>
+        <v>Нашествие Монголов. Золотая орда (1237-1480 гг.)</v>
+      </c>
+      <c r="D107" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1207.0)</f>
+        <v>1207</v>
+      </c>
+      <c r="E107" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Смута 1598-1613 гг. (причины/последствия/основные черты)")</f>
+        <v>Смута 1598-1613 гг. (причины/последствия/основные черты)</v>
+      </c>
+      <c r="F107" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1307.0)</f>
+        <v>1307</v>
+      </c>
+      <c r="G107" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Экономика 17 века, первопроходцы, торговля")</f>
+        <v>Экономика 17 века, первопроходцы, торговля</v>
+      </c>
+      <c r="H107" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1407.0)</f>
+        <v>1407</v>
+      </c>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -8152,14 +8944,38 @@
       <c r="Z107" s="1"/>
     </row>
     <row r="108">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
+      <c r="A108" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ярослав Мудрый")</f>
+        <v>Ярослав Мудрый</v>
+      </c>
+      <c r="B108" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1108.0)</f>
+        <v>1108</v>
+      </c>
+      <c r="C108" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Александр Невский")</f>
+        <v>Александр Невский</v>
+      </c>
+      <c r="D108" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1208.0)</f>
+        <v>1208</v>
+      </c>
+      <c r="E108" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Борис Годунов (1598-1605 гг.) и Федор Годунов")</f>
+        <v>Борис Годунов (1598-1605 гг.) и Федор Годунов</v>
+      </c>
+      <c r="F108" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1308.0)</f>
+        <v>1308</v>
+      </c>
+      <c r="G108" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Этапы закрепощения, виды крестьян")</f>
+        <v>Этапы закрепощения, виды крестьян</v>
+      </c>
+      <c r="H108" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1408.0)</f>
+        <v>1408</v>
+      </c>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -8180,14 +8996,38 @@
       <c r="Z108" s="1"/>
     </row>
     <row r="109">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
+      <c r="A109" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Триумвират Ярославичей. Святополк Изяславич")</f>
+        <v>Триумвират Ярославичей. Святополк Изяславич</v>
+      </c>
+      <c r="B109" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1109.0)</f>
+        <v>1109</v>
+      </c>
+      <c r="C109" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Возвышение Москвы (причины/последствия, плюсы и минусы, характерные черты)")</f>
+        <v>Возвышение Москвы (причины/последствия, плюсы и минусы, характерные черты)</v>
+      </c>
+      <c r="D109" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1209.0)</f>
+        <v>1209</v>
+      </c>
+      <c r="E109" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лжедмитрий I")</f>
+        <v>Лжедмитрий I</v>
+      </c>
+      <c r="F109" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1309.0)</f>
+        <v>1309</v>
+      </c>
+      <c r="G109" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература 17 в.")</f>
+        <v>Литература 17 в.</v>
+      </c>
+      <c r="H109" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1409.0)</f>
+        <v>1409</v>
+      </c>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -8208,14 +9048,38 @@
       <c r="Z109" s="1"/>
     </row>
     <row r="110">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
+      <c r="A110" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Владимир Мономах — Мстислав Великий")</f>
+        <v>Владимир Мономах — Мстислав Великий</v>
+      </c>
+      <c r="B110" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1110.0)</f>
+        <v>1110</v>
+      </c>
+      <c r="C110" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Даниил Московский. Юрий Данилович")</f>
+        <v>Даниил Московский. Юрий Данилович</v>
+      </c>
+      <c r="D110" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1210.0)</f>
+        <v>1210</v>
+      </c>
+      <c r="E110" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Василий Шуйский")</f>
+        <v>Василий Шуйский</v>
+      </c>
+      <c r="F110" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1310.0)</f>
+        <v>1310</v>
+      </c>
+      <c r="G110" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура 17 в.")</f>
+        <v>Архитектура 17 в.</v>
+      </c>
+      <c r="H110" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1410.0)</f>
+        <v>1410</v>
+      </c>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -8236,14 +9100,38 @@
       <c r="Z110" s="1"/>
     </row>
     <row r="111">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
+      <c r="A111" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Экономика Древнерусского государства")</f>
+        <v>Экономика Древнерусского государства</v>
+      </c>
+      <c r="B111" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1111.0)</f>
+        <v>1111</v>
+      </c>
+      <c r="C111" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Иван Калита. Симеон Гордый и Иван Красный")</f>
+        <v>Иван Калита. Симеон Гордый и Иван Красный</v>
+      </c>
+      <c r="D111" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1211.0)</f>
+        <v>1211</v>
+      </c>
+      <c r="E111" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лжедмитрий II")</f>
+        <v>Лжедмитрий II</v>
+      </c>
+      <c r="F111" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1311.0)</f>
+        <v>1311</v>
+      </c>
+      <c r="G111" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Живопись 17 в.")</f>
+        <v>Живопись 17 в.</v>
+      </c>
+      <c r="H111" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1411.0)</f>
+        <v>1411</v>
+      </c>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -8264,14 +9152,38 @@
       <c r="Z111" s="1"/>
     </row>
     <row r="112">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
+      <c r="A112" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Русская правда")</f>
+        <v>Русская правда</v>
+      </c>
+      <c r="B112" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1112.0)</f>
+        <v>1112</v>
+      </c>
+      <c r="C112" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дмитрий Донской")</f>
+        <v>Дмитрий Донской</v>
+      </c>
+      <c r="D112" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1212.0)</f>
+        <v>1212</v>
+      </c>
+      <c r="E112" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Семибоярщина")</f>
+        <v>Семибоярщина</v>
+      </c>
+      <c r="F112" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1312.0)</f>
+        <v>1312</v>
+      </c>
+      <c r="G112" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образование и наука 17 в.")</f>
+        <v>Образование и наука 17 в.</v>
+      </c>
+      <c r="H112" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1412.0)</f>
+        <v>1412</v>
+      </c>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -8292,14 +9204,38 @@
       <c r="Z112" s="1"/>
     </row>
     <row r="113">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
+      <c r="A113" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Печенеги и половцы Литература Древнерусского государства")</f>
+        <v>Печенеги и половцы Литература Древнерусского государства</v>
+      </c>
+      <c r="B113" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1113.0)</f>
+        <v>1113</v>
+      </c>
+      <c r="C113" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Василий I")</f>
+        <v>Василий I</v>
+      </c>
+      <c r="D113" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1213.0)</f>
+        <v>1213</v>
+      </c>
+      <c r="E113" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Народные ополчения и интервенции + земский собор 1613 г.")</f>
+        <v>Народные ополчения и интервенции + земский собор 1613 г.</v>
+      </c>
+      <c r="F113" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1313.0)</f>
+        <v>1313</v>
+      </c>
+      <c r="G113" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Софья Алексеевна")</f>
+        <v>Софья Алексеевна</v>
+      </c>
+      <c r="H113" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1413.0)</f>
+        <v>1413</v>
+      </c>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
@@ -8320,14 +9256,38 @@
       <c r="Z113" s="1"/>
     </row>
     <row r="114">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
+      <c r="A114" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура Древнерусского государства")</f>
+        <v>Архитектура Древнерусского государства</v>
+      </c>
+      <c r="B114" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1114.0)</f>
+        <v>1114</v>
+      </c>
+      <c r="C114" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Василий II")</f>
+        <v>Василий II</v>
+      </c>
+      <c r="D114" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1214.0)</f>
+        <v>1214</v>
+      </c>
+      <c r="E114" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература 16 в.")</f>
+        <v>Литература 16 в.</v>
+      </c>
+      <c r="F114" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1314.0)</f>
+        <v>1314</v>
+      </c>
+      <c r="G114" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Петр Первый внутренняя политика")</f>
+        <v>Петр Первый внутренняя политика</v>
+      </c>
+      <c r="H114" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1414.0)</f>
+        <v>1414</v>
+      </c>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
@@ -8350,12 +9310,30 @@
     <row r="115">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
+      <c r="C115" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Иван III внутренняя политика")</f>
+        <v>Иван III внутренняя политика</v>
+      </c>
+      <c r="D115" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1215.0)</f>
+        <v>1215</v>
+      </c>
+      <c r="E115" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура 16 в.")</f>
+        <v>Архитектура 16 в.</v>
+      </c>
+      <c r="F115" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1315.0)</f>
+        <v>1315</v>
+      </c>
+      <c r="G115" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Петр Первый внешняя политика")</f>
+        <v>Петр Первый внешняя политика</v>
+      </c>
+      <c r="H115" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1415.0)</f>
+        <v>1415</v>
+      </c>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
@@ -8378,12 +9356,30 @@
     <row r="116">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
+      <c r="C116" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Иван III внешняя политика")</f>
+        <v>Иван III внешняя политика</v>
+      </c>
+      <c r="D116" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1216.0)</f>
+        <v>1216</v>
+      </c>
+      <c r="E116" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Живопись 16 в.")</f>
+        <v>Живопись 16 в.</v>
+      </c>
+      <c r="F116" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1316.0)</f>
+        <v>1316</v>
+      </c>
+      <c r="G116" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эпоха дворцовых переворотов")</f>
+        <v>Эпоха дворцовых переворотов</v>
+      </c>
+      <c r="H116" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1416.0)</f>
+        <v>1416</v>
+      </c>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -8406,12 +9402,30 @@
     <row r="117">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
+      <c r="C117" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Василий III")</f>
+        <v>Василий III</v>
+      </c>
+      <c r="D117" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1217.0)</f>
+        <v>1217</v>
+      </c>
+      <c r="E117" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образование и наука 16 в.")</f>
+        <v>Образование и наука 16 в.</v>
+      </c>
+      <c r="F117" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1317.0)</f>
+        <v>1317</v>
+      </c>
+      <c r="G117" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Екатерина I. Петр II")</f>
+        <v>Екатерина I. Петр II</v>
+      </c>
+      <c r="H117" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1417.0)</f>
+        <v>1417</v>
+      </c>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
@@ -8434,12 +9448,24 @@
     <row r="118">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
+      <c r="C118" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература раздробленности 1132-1263 гг.")</f>
+        <v>Литература раздробленности 1132-1263 гг.</v>
+      </c>
+      <c r="D118" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1218.0)</f>
+        <v>1218</v>
+      </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
+      <c r="G118" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Анна Иоанновна внутренняя политика")</f>
+        <v>Анна Иоанновна внутренняя политика</v>
+      </c>
+      <c r="H118" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1418.0)</f>
+        <v>1418</v>
+      </c>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
@@ -8462,12 +9488,26 @@
     <row r="119">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
+      <c r="C119" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литература Возвышения Москвы 1263-1533 гг.
+")</f>
+        <v>Литература Возвышения Москвы 1263-1533 гг.
+</v>
+      </c>
+      <c r="D119" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1219.0)</f>
+        <v>1219</v>
+      </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
+      <c r="G119" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Анна Иоанновна внешняя политика")</f>
+        <v>Анна Иоанновна внешняя политика</v>
+      </c>
+      <c r="H119" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1419.0)</f>
+        <v>1419</v>
+      </c>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
@@ -8490,12 +9530,26 @@
     <row r="120">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
+      <c r="C120" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура раздробленности 1132-1263 гг.
+")</f>
+        <v>Архитектура раздробленности 1132-1263 гг.
+</v>
+      </c>
+      <c r="D120" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1220.0)</f>
+        <v>1220</v>
+      </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
+      <c r="G120" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Иван Антонович")</f>
+        <v>Иван Антонович</v>
+      </c>
+      <c r="H120" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1420.0)</f>
+        <v>1420</v>
+      </c>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
@@ -8518,12 +9572,26 @@
     <row r="121">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
+      <c r="C121" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура Возвышения Москвы 1263-1533 гг.
+")</f>
+        <v>Архитектура Возвышения Москвы 1263-1533 гг.
+</v>
+      </c>
+      <c r="D121" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1221.0)</f>
+        <v>1221</v>
+      </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
+      <c r="G121" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Елизавета Петровна внутренняя политика")</f>
+        <v>Елизавета Петровна внутренняя политика</v>
+      </c>
+      <c r="H121" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1421.0)</f>
+        <v>1421</v>
+      </c>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
@@ -8546,12 +9614,26 @@
     <row r="122">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
+      <c r="C122" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Живопись раздробленности 1132-1263 гг.
+")</f>
+        <v>Живопись раздробленности 1132-1263 гг.
+</v>
+      </c>
+      <c r="D122" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1222.0)</f>
+        <v>1222</v>
+      </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
+      <c r="G122" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Елизавета Петровна внешняя политика")</f>
+        <v>Елизавета Петровна внешняя политика</v>
+      </c>
+      <c r="H122" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1422.0)</f>
+        <v>1422</v>
+      </c>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
@@ -8574,12 +9656,26 @@
     <row r="123">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
+      <c r="C123" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Живопись Возвышения Москвы 1263-1533 гг.
+")</f>
+        <v>Живопись Возвышения Москвы 1263-1533 гг.
+</v>
+      </c>
+      <c r="D123" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1223.0)</f>
+        <v>1223</v>
+      </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
+      <c r="G123" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Семилетняя война")</f>
+        <v>Семилетняя война</v>
+      </c>
+      <c r="H123" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1423.0)</f>
+        <v>1423</v>
+      </c>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
@@ -8606,8 +9702,14 @@
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
+      <c r="G124" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пётр III")</f>
+        <v>Пётр III</v>
+      </c>
+      <c r="H124" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1424.0)</f>
+        <v>1424</v>
+      </c>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
